--- a/TP1_Pared_Federico.xlsx
+++ b/TP1_Pared_Federico.xlsx
@@ -2,49 +2,37 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fedeytamy\Desktop\facu\Sistemas de computacion I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Users\fedep\Desktop\FEDE\FACU\sistemasI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD1E8D9-D6FA-4CAC-B55F-3C9010F5CDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1283CB2-81F7-4EA5-BD3A-FD48244966CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="3" xr2:uid="{27C5FDEF-7941-4DEB-9B0D-6752B2614BC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{27C5FDEF-7941-4DEB-9B0D-6752B2614BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 1" sheetId="1" r:id="rId1"/>
     <sheet name="Ejercicio 2" sheetId="10" r:id="rId2"/>
     <sheet name="Ejercicio 3" sheetId="3" r:id="rId3"/>
     <sheet name="Ejercicio 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Ejercicio 5" sheetId="5" r:id="rId5"/>
-    <sheet name="Ejercicio 6" sheetId="6" r:id="rId6"/>
-    <sheet name="Ejercicio 7" sheetId="7" r:id="rId7"/>
-    <sheet name="Ejercicio 8" sheetId="8" r:id="rId8"/>
-    <sheet name="Ejercicoi 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Ejercicio 6" sheetId="6" r:id="rId5"/>
+    <sheet name="Ejercicio 7" sheetId="7" r:id="rId6"/>
+    <sheet name="Ejercicio 8" sheetId="8" r:id="rId7"/>
+    <sheet name="EjercicIo 9" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="42">
   <si>
     <t>Parte Entera</t>
   </si>
@@ -150,12 +138,33 @@
   <si>
     <t>Valor octal</t>
   </si>
+  <si>
+    <t>Calculo auxiliar Hexa</t>
+  </si>
+  <si>
+    <t>Valor Octal</t>
+  </si>
+  <si>
+    <t>Resultado parte entera</t>
+  </si>
+  <si>
+    <t>Auxiliar Hexa</t>
+  </si>
+  <si>
+    <t>Ej a)</t>
+  </si>
+  <si>
+    <t>Ej b)</t>
+  </si>
+  <si>
+    <t>Ej c)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +193,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +304,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -974,11 +1006,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1045,334 +1132,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1380,8 +1166,485 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="52" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="32" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="60" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Énfasis4" xfId="2" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1725,120 +1988,120 @@
       <selection sqref="A1:W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="41"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="60"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="44"/>
-    </row>
-    <row r="3" spans="1:23" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="47"/>
-    </row>
-    <row r="4" spans="1:23" ht="22.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="66"/>
+    </row>
+    <row r="4" spans="1:23" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="34"/>
+      <c r="C4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="76"/>
       <c r="U4" s="10" t="s">
         <v>10</v>
       </c>
@@ -1849,11 +2112,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="19.05" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:23" ht="19.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="7">
         <f>2^10</f>
         <v>1024</v>
@@ -1926,12 +2189,12 @@
         <f>2^-7</f>
         <v>7.8125E-3</v>
       </c>
-      <c r="U5" s="48"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="50"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="69"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1991,21 +2254,21 @@
       <c r="T6" s="6">
         <v>0</v>
       </c>
-      <c r="U6" s="60">
+      <c r="U6" s="47">
         <f>SUM(C7:M7)</f>
         <v>38</v>
       </c>
-      <c r="V6" s="55">
+      <c r="V6" s="72">
         <f>SUM(N7:T7)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="56">
+      <c r="W6" s="73">
         <f>SUM(U6:V6)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2081,12 +2344,12 @@
         <f t="shared" ref="T7" si="5">T6*T5</f>
         <v>0</v>
       </c>
-      <c r="U7" s="54"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="52"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="71"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2146,21 +2409,21 @@
       <c r="T8" s="6">
         <v>0</v>
       </c>
-      <c r="U8" s="53">
+      <c r="U8" s="49">
         <f>SUM(C9:M9)</f>
         <v>6</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8" s="50">
         <f>SUM(N9:T9)</f>
         <v>0.875</v>
       </c>
-      <c r="W8" s="51">
+      <c r="W8" s="70">
         <f>SUM(U8:V9)</f>
         <v>6.875</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2236,12 +2499,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U9" s="54"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="52"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="71"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2301,21 +2564,21 @@
       <c r="T10" s="6">
         <v>0</v>
       </c>
-      <c r="U10" s="53">
+      <c r="U10" s="49">
         <f>SUM(C11:M11)</f>
         <v>230</v>
       </c>
-      <c r="V10" s="35">
+      <c r="V10" s="50">
         <f>SUM(N11:T11)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="51">
+      <c r="W10" s="70">
         <f>SUM(U10:V11)</f>
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2391,12 +2654,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U11" s="54"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="52"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="71"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2456,21 +2719,21 @@
       <c r="T12" s="6">
         <v>1</v>
       </c>
-      <c r="U12" s="53">
+      <c r="U12" s="49">
         <f>SUM(C13:M13)</f>
         <v>9</v>
       </c>
-      <c r="V12" s="35">
+      <c r="V12" s="50">
         <f>SUM(N13:T13)</f>
         <v>8.59375E-2</v>
       </c>
-      <c r="W12" s="35">
+      <c r="W12" s="50">
         <f>SUM(U12:V13)</f>
         <v>9.0859375</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2546,12 +2809,12 @@
         <f t="shared" si="8"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="U13" s="54"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="56" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2611,21 +2874,21 @@
       <c r="T14" s="6">
         <v>0</v>
       </c>
-      <c r="U14" s="35">
+      <c r="U14" s="50">
         <f>SUM(C15:M15)</f>
         <v>1366</v>
       </c>
-      <c r="V14" s="35">
+      <c r="V14" s="50">
         <f>SUM(N15:T15)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="35">
+      <c r="W14" s="50">
         <f>SUM(U14:V14)</f>
         <v>1366</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="56"/>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2701,12 +2964,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2766,21 +3029,21 @@
       <c r="T16" s="6">
         <v>1</v>
       </c>
-      <c r="U16" s="35">
+      <c r="U16" s="50">
         <f>SUM(C17:M17)</f>
         <v>170</v>
       </c>
-      <c r="V16" s="35">
+      <c r="V16" s="50">
         <f>SUM(N17:T17)</f>
         <v>0.7109375</v>
       </c>
-      <c r="W16" s="35">
+      <c r="W16" s="50">
         <f>SUM(U16:V17)</f>
         <v>170.7109375</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="57"/>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2856,12 +3119,12 @@
         <f t="shared" si="10"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2921,21 +3184,21 @@
       <c r="T18" s="6">
         <v>1</v>
       </c>
-      <c r="U18" s="35">
+      <c r="U18" s="50">
         <f>SUM(C19:M19)</f>
         <v>1366</v>
       </c>
-      <c r="V18" s="35">
+      <c r="V18" s="50">
         <f>SUM(N19:T19)</f>
         <v>0.2109375</v>
       </c>
-      <c r="W18" s="35">
+      <c r="W18" s="50">
         <f>SUM(U18:V19)</f>
         <v>1366.2109375</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="44"/>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
@@ -3011,12 +3274,32 @@
         <f t="shared" si="11"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="A1:W3"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="N4:T4"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="U6:U7"/>
@@ -3030,26 +3313,6 @@
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:W3"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:W15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3060,12 +3323,12 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection sqref="A1:Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="2" bestFit="1" customWidth="1"/>
@@ -3073,183 +3336,183 @@
     <col min="11" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="99" t="s">
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="93" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="87" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="96" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="100"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="94"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="85">
+      <c r="D3" s="89">
         <v>10</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="89">
         <v>9</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="89">
         <v>8</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="89">
         <v>7</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="89">
         <v>6</v>
       </c>
-      <c r="I3" s="85">
+      <c r="I3" s="89">
         <v>5</v>
       </c>
-      <c r="J3" s="85">
+      <c r="J3" s="89">
         <v>4</v>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="89">
         <v>3</v>
       </c>
-      <c r="L3" s="85">
+      <c r="L3" s="89">
         <v>2</v>
       </c>
-      <c r="M3" s="85">
-        <v>1</v>
-      </c>
-      <c r="N3" s="85">
-        <v>0</v>
-      </c>
-      <c r="O3" s="85">
-        <v>1</v>
-      </c>
-      <c r="P3" s="85">
+      <c r="M3" s="89">
+        <v>1</v>
+      </c>
+      <c r="N3" s="89">
+        <v>0</v>
+      </c>
+      <c r="O3" s="89">
+        <v>1</v>
+      </c>
+      <c r="P3" s="89">
         <v>2</v>
       </c>
-      <c r="Q3" s="85">
+      <c r="Q3" s="89">
         <v>3</v>
       </c>
-      <c r="R3" s="85">
+      <c r="R3" s="89">
         <v>4</v>
       </c>
-      <c r="S3" s="85">
+      <c r="S3" s="89">
         <v>5</v>
       </c>
-      <c r="T3" s="85">
+      <c r="T3" s="89">
         <v>6</v>
       </c>
-      <c r="U3" s="85">
+      <c r="U3" s="89">
         <v>7</v>
       </c>
-      <c r="V3" s="85">
+      <c r="V3" s="89">
         <v>8</v>
       </c>
-      <c r="W3" s="85">
+      <c r="W3" s="89">
         <v>9</v>
       </c>
-      <c r="X3" s="85">
+      <c r="X3" s="89">
         <v>10</v>
       </c>
-      <c r="Y3" s="100"/>
+      <c r="Y3" s="94"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="101"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="95"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="100">
         <v>11</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="100">
         <v>0</v>
       </c>
       <c r="D5" s="17">
@@ -3336,15 +3599,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="79" t="str">
+      <c r="Y5" s="100" t="str">
         <f>_xlfn.CONCAT(D6:N6,",",O6:X6)</f>
         <v>00000001011,0000000000</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="16">
         <f t="shared" ref="D6:N6" si="2">MOD(D5,2)</f>
         <v>0</v>
@@ -3429,16 +3692,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="80"/>
+      <c r="Y6" s="101"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="102">
         <v>58</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="102">
         <v>0</v>
       </c>
       <c r="D7" s="17">
@@ -3525,15 +3788,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="81" t="str">
+      <c r="Y7" s="102" t="str">
         <f>_xlfn.CONCAT(D8:N8,",",O8:X8)</f>
         <v>00000111010,0000000000</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="16">
         <f t="shared" ref="D8:N8" si="6">MOD(D7,2)</f>
         <v>0</v>
@@ -3618,16 +3881,16 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="82"/>
+      <c r="Y8" s="103"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="104">
         <v>121</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="104">
         <v>0</v>
       </c>
       <c r="D9" s="17">
@@ -3714,15 +3977,15 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="83" t="str">
+      <c r="Y9" s="104" t="str">
         <f>_xlfn.CONCAT(D10:N10,",",O10:X10)</f>
         <v>00001111001,0000000000</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="16">
         <f t="shared" ref="D10:N10" si="10">MOD(D9,2)</f>
         <v>0</v>
@@ -3807,16 +4070,16 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="84"/>
+      <c r="Y10" s="105"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="91">
         <v>156</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="91">
         <v>0</v>
       </c>
       <c r="D11" s="17">
@@ -3903,15 +4166,15 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="75" t="str">
+      <c r="Y11" s="91" t="str">
         <f>_xlfn.CONCAT(D12:N12,",",O12:X12)</f>
         <v>00010011100,0000000000</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="16">
         <f t="shared" ref="D12:N12" si="14">MOD(D11,2)</f>
         <v>0</v>
@@ -3996,16 +4259,16 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="76"/>
+      <c r="Y12" s="92"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="77">
+      <c r="B13" s="106">
         <v>1121</v>
       </c>
-      <c r="C13" s="77">
+      <c r="C13" s="106">
         <v>0</v>
       </c>
       <c r="D13" s="17">
@@ -4092,15 +4355,15 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="77" t="str">
+      <c r="Y13" s="106" t="str">
         <f>_xlfn.CONCAT(D14:N14,",",O14:X14)</f>
         <v>10001100001,0000000000</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="16">
         <f t="shared" ref="D14:N14" si="18">MOD(D13,2)</f>
         <v>1</v>
@@ -4185,16 +4448,16 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="78"/>
+      <c r="Y14" s="107"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="108">
         <v>11</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="108">
         <v>99</v>
       </c>
       <c r="D15" s="17">
@@ -4281,15 +4544,15 @@
         <f t="shared" si="21"/>
         <v>1.7599999999999909</v>
       </c>
-      <c r="Y15" s="69" t="str">
+      <c r="Y15" s="108" t="str">
         <f>_xlfn.CONCAT(D16:N16,",",O16:X16)</f>
         <v>00000001011,1111110101</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="16">
         <f t="shared" ref="D16:N16" si="22">MOD(D15,2)</f>
         <v>0</v>
@@ -4374,16 +4637,16 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="70"/>
+      <c r="Y16" s="109"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="110">
         <v>245</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="110">
         <v>55</v>
       </c>
       <c r="D17" s="17">
@@ -4470,15 +4733,15 @@
         <f t="shared" si="25"/>
         <v>1.2000000000000455</v>
       </c>
-      <c r="Y17" s="67" t="str">
+      <c r="Y17" s="110" t="str">
         <f>_xlfn.CONCAT(D18:N18,",",O18:X18)</f>
         <v>00011110101,1000110011</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="16">
         <f t="shared" ref="D18:N18" si="26">MOD(D17,2)</f>
         <v>0</v>
@@ -4563,16 +4826,16 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="68"/>
+      <c r="Y18" s="111"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="96">
         <v>31</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="96">
         <v>256</v>
       </c>
       <c r="D19" s="17">
@@ -4659,15 +4922,15 @@
         <f t="shared" si="29"/>
         <v>0.14400000000000546</v>
       </c>
-      <c r="Y19" s="71" t="str">
+      <c r="Y19" s="96" t="str">
         <f>_xlfn.CONCAT(D20:N20,",",O20:X20)</f>
         <v>00000011111,0100000110</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="16">
         <f t="shared" ref="D20:N20" si="30">MOD(D19,2)</f>
         <v>0</v>
@@ -4752,16 +5015,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="72"/>
+      <c r="Y20" s="97"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="73">
+      <c r="B21" s="98">
         <v>1110</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="98">
         <v>2256</v>
       </c>
       <c r="D21" s="17">
@@ -4848,15 +5111,15 @@
         <f t="shared" si="33"/>
         <v>1.0143999999999949</v>
       </c>
-      <c r="Y21" s="73" t="str">
+      <c r="Y21" s="98" t="str">
         <f>_xlfn.CONCAT(D22:N22,",",O22:X22)</f>
         <v>10001010110,0011100111</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="16">
         <f t="shared" ref="D22:N22" si="34">MOD(D21,2)</f>
         <v>1</v>
@@ -4941,10 +5204,60 @@
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="Y22" s="74"/>
+      <c r="Y22" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y1:Y4"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:N1"/>
     <mergeCell ref="O1:X1"/>
@@ -4961,56 +5274,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y1:Y4"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5022,89 +5285,89 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
-    </row>
-    <row r="4" spans="1:14" ht="22.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="10" t="s">
         <v>30</v>
       </c>
@@ -5115,11 +5378,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="19.05" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:14" ht="19.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="8">
         <v>4096</v>
       </c>
@@ -5153,12 +5416,12 @@
         <f>16^-5</f>
         <v>9.5367431640625E-7</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="69"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5191,21 +5454,21 @@
       <c r="K6" s="6">
         <v>0</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="47">
         <f>SUM(C7:F7)</f>
         <v>239</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="72">
         <f>SUM(G7:K7)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="56">
+      <c r="N6" s="73">
         <f>SUM(L6:M6)</f>
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -5245,12 +5508,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="52"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -5283,21 +5546,21 @@
       <c r="K8" s="6">
         <v>0</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="49">
         <f>SUM(C9:F9)</f>
         <v>245</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="50">
         <f>SUM(G9:K9)</f>
         <v>0.176513671875</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="70">
         <f>SUM(L8:M9)</f>
         <v>245.176513671875</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -5337,12 +5600,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="52"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="71"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -5375,21 +5638,21 @@
       <c r="K10" s="6">
         <v>0</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="49">
         <f>SUM(C11:F11)</f>
         <v>3602</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="50">
         <f>SUM(G11:K11)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="51">
+      <c r="N10" s="70">
         <f>SUM(L10:M11)</f>
         <v>3602</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
@@ -5429,12 +5692,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="52"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="71"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5467,21 +5730,21 @@
       <c r="K12" s="6">
         <v>0</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="49">
         <f>SUM(C13:F13)</f>
         <v>483</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="50">
         <f>SUM(G13:K13)</f>
         <v>0.8912506103515625</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="50">
         <f>SUM(L12:M13)</f>
         <v>483.89125061035156</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -5521,12 +5784,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="56" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -5559,21 +5822,21 @@
       <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="50">
         <f>SUM(C15:F15)</f>
         <v>224</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="50">
         <f>SUM(G15:K15)</f>
         <v>0.13720703125</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="50">
         <f>SUM(L14:M14)</f>
         <v>224.13720703125</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="56"/>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -5613,12 +5876,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -5651,21 +5914,21 @@
       <c r="K16" s="6">
         <v>1</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="50">
         <f>SUM(C17:F17)</f>
         <v>4097</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="50">
         <f>SUM(G17:K17)</f>
         <v>6.6407203674316406E-2</v>
       </c>
-      <c r="N16" s="35">
+      <c r="N16" s="50">
         <f>SUM(L16:M17)</f>
         <v>4097.0664072036743</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="57"/>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -5705,12 +5968,29 @@
         <f t="shared" si="5"/>
         <v>9.5367431640625E-7</v>
       </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
@@ -5723,23 +6003,6 @@
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5749,58 +6012,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2AC712-CFEC-4F2B-8439-D977C3BB597C}">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11:AE12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="21" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:31" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="116"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="143"/>
       <c r="AC1" s="10" t="s">
         <v>30</v>
       </c>
@@ -5811,50 +6074,50 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="19.05" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:31" ht="19.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="119">
+      <c r="B2" s="46"/>
+      <c r="C2" s="118">
         <v>256</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="120"/>
-      <c r="G2" s="119">
+      <c r="G2" s="118">
         <v>16</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
       <c r="J2" s="120"/>
-      <c r="K2" s="119">
+      <c r="K2" s="118">
         <f>2^0</f>
         <v>1</v>
       </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="108">
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="145">
         <f>16^-1</f>
         <v>6.25E-2</v>
       </c>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="119">
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="118">
         <f>16^-2</f>
         <v>3.90625E-3</v>
       </c>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
       <c r="V2" s="120"/>
-      <c r="W2" s="119">
+      <c r="W2" s="118">
         <f>16^-3</f>
         <v>2.44140625E-4</v>
       </c>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
       <c r="Z2" s="120"/>
       <c r="AA2" s="8">
         <f>16^-4</f>
@@ -5864,119 +6127,119 @@
         <f>16^-5</f>
         <v>9.5367431640625E-7</v>
       </c>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="50"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="126" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="110">
-        <v>0</v>
-      </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="110">
-        <v>1</v>
-      </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="110">
+      <c r="C3" s="121">
+        <v>0</v>
+      </c>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="121">
+        <v>1</v>
+      </c>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="121">
         <v>2</v>
       </c>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="110">
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="121">
         <v>2</v>
       </c>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="110" t="s">
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="110">
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="121">
         <v>3</v>
       </c>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="117"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="123"/>
       <c r="AA3" s="6">
         <v>0</v>
       </c>
       <c r="AB3" s="6">
         <v>0</v>
       </c>
-      <c r="AC3" s="60">
+      <c r="AC3" s="47">
         <f>SUM(C4:M4)</f>
         <v>18</v>
       </c>
-      <c r="AD3" s="55">
+      <c r="AD3" s="72">
         <f>SUM(O4:AB4)</f>
         <v>0.164794921875</v>
       </c>
-      <c r="AE3" s="56">
+      <c r="AE3" s="73">
         <f>SUM(AC3:AD3)</f>
         <v>18.164794921875</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="127"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="112">
+      <c r="C4" s="129">
         <f>IF(ISNUMBER(C3), C3*C2, IF(C3="A", 10*C2, IF(C3="B", 11*C2, IF(C3="C", 12*C2, IF(C3="D", 13*C2, IF(C3="E", 14*C2, IF(C3="F", 15*C2, 0)))))))</f>
         <v>0</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="112">
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="129">
         <f>IF(ISNUMBER(G3), G3*G2, IF(G3="A", 10*G2, IF(G3="B", 11*G2, IF(G3="C", 12*G2, IF(G3="D", 13*G2, IF(G3="E", 14*G2, IF(G3="F", 15*G2, 0)))))))</f>
         <v>16</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="112">
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="129">
         <f>IF(ISNUMBER(K3), K3*K2, IF(K3="A", 10*K2, IF(K3="B", 11*K2, IF(K3="C", 12*K2, IF(K3="D", 13*K2, IF(K3="E", 14*K2, IF(K3="F", 15*K2, 0)))))))</f>
         <v>2</v>
       </c>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="134">
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="146">
         <f>IF(ISNUMBER(O3), O3*O2, IF(O3="A", 10*O2, IF(O3="B", 11*O2, IF(O3="C", 12*O2, IF(O3="D", 13*O2, IF(O3="E", 14*O2, IF(O3="F", 15*O2, 0)))))))</f>
         <v>0.125</v>
       </c>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="112">
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="129">
         <f>IF(ISNUMBER(S3), S3*S2, IF(S3="A", 10*S2, IF(S3="B", 11*S2, IF(S3="C", 12*S2, IF(S3="D", 13*S2, IF(S3="E", 14*S2, IF(S3="F", 15*S2, 0)))))))</f>
         <v>3.90625E-2</v>
       </c>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="112">
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="129">
         <f>IF(ISNUMBER(W3), W3*W2, IF(W3="A", 10*W2, IF(W3="B", 11*W2, IF(W3="C", 12*W2, IF(W3="D", 13*W2, IF(W3="E", 14*W2, IF(W3="F", 15*W2, 0)))))))</f>
         <v>7.32421875E-4</v>
       </c>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113"/>
-      <c r="Z4" s="118"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="131"/>
       <c r="AA4" s="4">
         <f>IF(ISNUMBER(AA3), AA3*AA2, IF(AA3="A", 10*AA2, IF(AA3="B", 11*AA2, IF(AA3="C", 12*AA2, IF(AA3="D", 13*AA2, IF(AA3="E", 14*AA2, IF(AA3="F", 15*AA2, 0)))))))</f>
         <v>0</v>
@@ -5985,17 +6248,17 @@
         <f>IF(ISNUMBER(AB3), AB3*AB2, IF(AB3="A", 10*AB2, IF(AB3="B", 11*AB2, IF(AB3="C", 12*AB2, IF(AB3="D", 13*AB2, IF(AB3="E", 14*AB2, IF(AB3="F", 15*AB2, 0)))))))</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="52"/>
-    </row>
-    <row r="5" spans="1:31" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="71"/>
+    </row>
+    <row r="5" spans="1:31" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="127"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="19">
         <f>INT((IF($G$3="A",10,IF($G$3="B",11,IF($G$3="C",12,IF($G$3="D",13,IF($G$3="E",14,IF($G$3="F",15,$G$3)))))))/POWER(2,3))</f>
         <v>0</v>
@@ -6028,7 +6291,7 @@
         <f>INT((IF($K$3="A",10,IF($K$3="B",11,IF($K$3="C",12,IF($K$3="D",13,IF($K$3="E",14,IF($K$3="F",15,$K$3)))))))/POWER(2,0))</f>
         <v>2</v>
       </c>
-      <c r="O5" s="135">
+      <c r="O5" s="38">
         <f>INT((IF($O$3="A",10,IF($O$3="B",11,IF($O$3="C",12,IF($O$3="D",13,IF($O$3="E",14,IF($O$3="F",15,$O$3)))))))/POWER(2,3))</f>
         <v>0</v>
       </c>
@@ -6082,93 +6345,105 @@
       <c r="AD5" s="21"/>
       <c r="AE5" s="22"/>
     </row>
-    <row r="6" spans="1:31" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="124"/>
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="128"/>
       <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
+      <c r="C6" s="28">
+        <f t="shared" ref="C6:F6" si="0">MOD(C5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G6" s="28">
         <f>MOD(G5,2)</f>
         <v>0</v>
       </c>
       <c r="H6" s="29">
-        <f t="shared" ref="H6:J6" si="0">MOD(H5,2)</f>
+        <f t="shared" ref="H6:J6" si="1">MOD(H5,2)</f>
         <v>0</v>
       </c>
       <c r="I6" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K6" s="31">
-        <f t="shared" ref="K6" si="1">MOD(K5,2)</f>
+        <f t="shared" ref="K6" si="2">MOD(K5,2)</f>
         <v>0</v>
       </c>
       <c r="L6" s="29">
-        <f t="shared" ref="L6" si="2">MOD(L5,2)</f>
+        <f t="shared" ref="L6" si="3">MOD(L5,2)</f>
         <v>0</v>
       </c>
       <c r="M6" s="29">
-        <f t="shared" ref="M6" si="3">MOD(M5,2)</f>
+        <f t="shared" ref="M6" si="4">MOD(M5,2)</f>
         <v>1</v>
       </c>
       <c r="N6" s="30">
-        <f t="shared" ref="N6" si="4">MOD(N5,2)</f>
+        <f t="shared" ref="N6" si="5">MOD(N5,2)</f>
         <v>0</v>
       </c>
       <c r="O6" s="29">
-        <f t="shared" ref="O6" si="5">MOD(O5,2)</f>
+        <f t="shared" ref="O6" si="6">MOD(O5,2)</f>
         <v>0</v>
       </c>
       <c r="P6" s="29">
-        <f t="shared" ref="P6" si="6">MOD(P5,2)</f>
+        <f t="shared" ref="P6" si="7">MOD(P5,2)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="29">
-        <f t="shared" ref="Q6" si="7">MOD(Q5,2)</f>
+        <f t="shared" ref="Q6" si="8">MOD(Q5,2)</f>
         <v>1</v>
       </c>
       <c r="R6" s="29">
-        <f t="shared" ref="R6" si="8">MOD(R5,2)</f>
+        <f t="shared" ref="R6" si="9">MOD(R5,2)</f>
         <v>0</v>
       </c>
       <c r="S6" s="31">
-        <f t="shared" ref="S6" si="9">MOD(S5,2)</f>
+        <f t="shared" ref="S6" si="10">MOD(S5,2)</f>
         <v>1</v>
       </c>
       <c r="T6" s="29">
-        <f t="shared" ref="T6" si="10">MOD(T5,2)</f>
+        <f t="shared" ref="T6" si="11">MOD(T5,2)</f>
         <v>0</v>
       </c>
       <c r="U6" s="29">
-        <f t="shared" ref="U6" si="11">MOD(U5,2)</f>
+        <f t="shared" ref="U6" si="12">MOD(U5,2)</f>
         <v>1</v>
       </c>
       <c r="V6" s="30">
-        <f t="shared" ref="V6" si="12">MOD(V5,2)</f>
+        <f t="shared" ref="V6" si="13">MOD(V5,2)</f>
         <v>0</v>
       </c>
       <c r="W6" s="29">
-        <f t="shared" ref="W6" si="13">MOD(W5,2)</f>
+        <f t="shared" ref="W6" si="14">MOD(W5,2)</f>
         <v>0</v>
       </c>
       <c r="X6" s="29">
-        <f t="shared" ref="X6" si="14">MOD(X5,2)</f>
+        <f t="shared" ref="X6" si="15">MOD(X5,2)</f>
         <v>0</v>
       </c>
       <c r="Y6" s="29">
-        <f t="shared" ref="Y6" si="15">MOD(Y5,2)</f>
+        <f t="shared" ref="Y6" si="16">MOD(Y5,2)</f>
         <v>1</v>
       </c>
       <c r="Z6" s="30">
-        <f t="shared" ref="Z6" si="16">MOD(Z5,2)</f>
+        <f t="shared" ref="Z6" si="17">MOD(Z5,2)</f>
         <v>1</v>
       </c>
       <c r="AA6" s="19"/>
@@ -6177,7 +6452,7 @@
       <c r="AD6" s="21"/>
       <c r="AE6" s="22"/>
     </row>
-    <row r="7" spans="1:31" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="18" t="s">
         <v>34</v>
@@ -6186,47 +6461,47 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="102">
+      <c r="G7" s="137">
         <f>G6*POWER(2,1)+H6*POWER(2,0)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="102">
+      <c r="H7" s="139"/>
+      <c r="I7" s="137">
         <f>I6*POWER(2,2)+J6*POWER(2,1)+K6*POWER(2,0)</f>
         <v>2</v>
       </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="102">
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="137">
         <f>L6*POWER(2,2)+M6*POWER(2,1)+N6*POWER(2,0)</f>
         <v>2</v>
       </c>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="136">
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="144">
         <f>O6*POWER(2,2)+P6*POWER(2,1)+Q6*POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="102">
+      <c r="P7" s="138"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="137">
         <f>R6*POWER(2,2)+S6*POWER(2,1)+T6*POWER(2,0)</f>
         <v>2</v>
       </c>
-      <c r="S7" s="103"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="102">
+      <c r="S7" s="138"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="137">
         <f>U6*POWER(2,2)+V6*POWER(2,1)+W6*POWER(2,0)</f>
         <v>4</v>
       </c>
-      <c r="V7" s="103"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="102">
+      <c r="V7" s="138"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="137">
         <f>X6*POWER(2,2)+Y6*POWER(2,1)+Z6*POWER(2,0)</f>
         <v>3</v>
       </c>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="104"/>
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="139"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
       <c r="AC7" s="20"/>
@@ -6234,170 +6509,170 @@
       <c r="AE7" s="22"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="135" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="110">
-        <v>1</v>
-      </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="110" t="s">
+      <c r="C8" s="121">
+        <v>1</v>
+      </c>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="110">
-        <v>1</v>
-      </c>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="110">
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="121">
+        <v>1</v>
+      </c>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="121">
         <v>8</v>
       </c>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="110">
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="121">
         <v>5</v>
       </c>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="110">
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="121">
         <v>5</v>
       </c>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="117"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="123"/>
       <c r="AA8" s="6">
         <v>0</v>
       </c>
       <c r="AB8" s="6">
         <v>0</v>
       </c>
-      <c r="AC8" s="53">
+      <c r="AC8" s="49">
         <f>SUM(C9:M9)</f>
         <v>449</v>
       </c>
-      <c r="AD8" s="35">
+      <c r="AD8" s="50">
         <f>SUM(O9:AB9)</f>
         <v>0.520751953125</v>
       </c>
-      <c r="AE8" s="51">
+      <c r="AE8" s="70">
         <f>SUM(AC8:AD9)</f>
         <v>449.520751953125</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
+    <row r="9" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="136"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="132">
         <f>IF(ISNUMBER(C8), C8*C2, IF(C8="A", 10*C2, IF(C8="B", 11*C2, IF(C8="C", 12*C2, IF(C8="D", 13*C2, IF(C8="E", 14*C2, IF(C8="F", 15*C2, 0)))))))</f>
         <v>256</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="127">
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="132">
         <f>IF(ISNUMBER(G8), G8*G2, IF(G8="A", 10*G2, IF(G8="B", 11*G2, IF(G8="C", 12*G2, IF(G8="D", 13*G2, IF(G8="E", 14*G2, IF(G8="F", 15*G2, 0)))))))</f>
         <v>192</v>
       </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="127">
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="132">
         <f>IF(ISNUMBER(K8), K8*K2, IF(K8="A", 10*K2, IF(K8="B", 11*K2, IF(K8="C", 12*K2, IF(K8="D", 13*K2, IF(K8="E", 14*K2, IF(K8="F", 15*K2, 0)))))))</f>
         <v>1</v>
       </c>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="137">
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="140">
         <f>IF(ISNUMBER(O8), O8*O2, IF(O8="A", 10*O2, IF(O8="B", 11*O2, IF(O8="C", 12*O2, IF(O8="D", 13*O2, IF(O8="E", 14*O2, IF(O8="F", 15*O2, 0)))))))</f>
         <v>0.5</v>
       </c>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="127">
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="132">
         <f>IF(ISNUMBER(S8), S8*S2, IF(S8="A", 10*S2, IF(S8="B", 11*S2, IF(S8="C", 12*S2, IF(S8="D", 13*S2, IF(S8="E", 14*S2, IF(S8="F", 15*S2, 0)))))))</f>
         <v>1.953125E-2</v>
       </c>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="127">
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="132">
         <f>IF(ISNUMBER(W8), W8*W2, IF(W8="A", 10*W2, IF(W8="B", 11*W2, IF(W8="C", 12*W2, IF(W8="D", 13*W2, IF(W8="E", 14*W2, IF(W8="F", 15*W2, 0)))))))</f>
         <v>1.220703125E-3</v>
       </c>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="130">
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="134"/>
+      <c r="AA9" s="36">
         <f>IF(ISNUMBER(AA8), AA8*AA2, IF(AA8="A", 10*AA2, IF(AA8="B", 11*AA2, IF(AA8="C", 12*AA2, IF(AA8="D", 13*AA2, IF(AA8="E", 14*AA2, IF(AA8="F", 15*AA2, 0)))))))</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="130">
+      <c r="AB9" s="36">
         <f>IF(ISNUMBER(AB8), AB8*AB2, IF(AB8="A", 10*AB2, IF(AB8="B", 11*AB2, IF(AB8="C", 12*AB2, IF(AB8="D", 13*AB2, IF(AB8="E", 14*AB2, IF(AB8="F", 15*AB2, 0)))))))</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="131"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="132"/>
-    </row>
-    <row r="10" spans="1:31" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="141">
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="112"/>
+      <c r="AE9" s="125"/>
+    </row>
+    <row r="10" spans="1:31" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="136"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="16">
         <f>INT((IF($C$8="A",10,IF($C$8="B",11,IF($C$8="C",12,IF($C$8="D",13,IF($C$8="E",14,IF($C$8="F",15,$C$8)))))))/POWER(2,3))</f>
         <v>0</v>
       </c>
-      <c r="D10" s="141">
+      <c r="D10" s="16">
         <f>INT((IF($C$8="A",10,IF($C$8="B",11,IF($C$8="C",12,IF($C$8="D",13,IF($C$8="E",14,IF($C$8="F",15,$C$8)))))))/POWER(2,2))</f>
         <v>0</v>
       </c>
-      <c r="E10" s="141">
+      <c r="E10" s="16">
         <f>INT((IF($C$8="A",10,IF($C$8="B",11,IF($C$8="C",12,IF($C$8="D",13,IF($C$8="E",14,IF($C$8="F",15,$C$8)))))))/POWER(2,1))</f>
         <v>0</v>
       </c>
-      <c r="F10" s="141">
+      <c r="F10" s="16">
         <f>INT((IF($C$8="A",10,IF($C$8="B",11,IF($C$8="C",12,IF($C$8="D",13,IF($C$8="E",14,IF($C$8="F",15,$C$8)))))))/POWER(2,0))</f>
         <v>1</v>
       </c>
-      <c r="G10" s="133">
+      <c r="G10" s="37">
         <f>INT((IF($G$8="A",10,IF($G$8="B",11,IF($G$8="C",12,IF($G$8="D",13,IF($G$8="E",14,IF($G$8="F",15,$G$8)))))))/POWER(2,3))</f>
         <v>1</v>
       </c>
-      <c r="H10" s="133">
+      <c r="H10" s="37">
         <f>INT((IF($G$8="A",10,IF($G$8="B",11,IF($G$8="C",12,IF($G$8="D",13,IF($G$8="E",14,IF($G$8="F",15,$G$8)))))))/POWER(2,2))</f>
         <v>3</v>
       </c>
-      <c r="I10" s="133">
+      <c r="I10" s="37">
         <f>INT((IF($G$8="A",10,IF($G$8="B",11,IF($G$8="C",12,IF($G$8="D",13,IF($G$8="E",14,IF($G$8="F",15,$G$8)))))))/POWER(2,1))</f>
         <v>6</v>
       </c>
-      <c r="J10" s="133">
+      <c r="J10" s="37">
         <f>INT((IF($G$8="A",10,IF($G$8="B",11,IF($G$8="C",12,IF($G$8="D",13,IF($G$8="E",14,IF($G$8="F",15,$G$8)))))))/POWER(2,0))</f>
         <v>12</v>
       </c>
-      <c r="K10" s="133">
+      <c r="K10" s="37">
         <f>INT((IF($K$8="A",10,IF($K$8="B",11,IF($K$8="C",12,IF($K$8="D",13,IF($K$8="E",14,IF($K$8="F",15,$K$8)))))))/POWER(2,3))</f>
         <v>0</v>
       </c>
-      <c r="L10" s="133">
+      <c r="L10" s="37">
         <f>INT((IF($K$8="A",10,IF($K$8="B",11,IF($K$8="C",12,IF($K$8="D",13,IF($K$8="E",14,IF($K$8="F",15,$K$8)))))))/POWER(2,2))</f>
         <v>0</v>
       </c>
-      <c r="M10" s="133">
+      <c r="M10" s="37">
         <f>INT((IF($K$8="A",10,IF($K$8="B",11,IF($K$8="C",12,IF($K$8="D",13,IF($K$8="E",14,IF($K$8="F",15,$K$8)))))))/POWER(2,1))</f>
         <v>0</v>
       </c>
@@ -6405,163 +6680,163 @@
         <f>INT((IF($K$8="A",10,IF($K$8="B",11,IF($K$8="C",12,IF($K$8="D",13,IF($K$8="E",14,IF($K$8="F",15,$K$8)))))))/POWER(2,0))</f>
         <v>1</v>
       </c>
-      <c r="O10" s="139">
+      <c r="O10" s="40">
         <f>INT((IF($O$8="A",10,IF($O$8="B",11,IF($O$8="C",12,IF($O$8="D",13,IF($O$8="E",14,IF($O$8="F",15,$O$8)))))))/POWER(2,3))</f>
         <v>1</v>
       </c>
-      <c r="P10" s="133">
+      <c r="P10" s="37">
         <f>INT((IF($O$8="A",10,IF($O$8="B",11,IF($O$8="C",12,IF($O$8="D",13,IF($O$8="E",14,IF($O$8="F",15,$O$8)))))))/POWER(2,2))</f>
         <v>2</v>
       </c>
-      <c r="Q10" s="133">
+      <c r="Q10" s="37">
         <f>INT((IF($O$8="A",10,IF($O$8="B",11,IF($O$8="C",12,IF($O$8="D",13,IF($O$8="E",14,IF($O$8="F",15,$O$8)))))))/POWER(2,1))</f>
         <v>4</v>
       </c>
-      <c r="R10" s="133">
+      <c r="R10" s="37">
         <f>INT((IF($O$8="A",10,IF($O$8="B",11,IF($O$8="C",12,IF($O$8="D",13,IF($O$8="E",14,IF($O$8="F",15,$O$8)))))))/POWER(2,0))</f>
         <v>8</v>
       </c>
-      <c r="S10" s="133">
+      <c r="S10" s="37">
         <f>INT((IF($S$8="A",10,IF($S$8="B",11,IF($S$8="C",12,IF($S$8="D",13,IF($S$8="E",14,IF($S$8="F",15,$S$8)))))))/POWER(2,3))</f>
         <v>0</v>
       </c>
-      <c r="T10" s="133">
+      <c r="T10" s="37">
         <f>INT((IF($S$8="A",10,IF($S$8="B",11,IF($S$8="C",12,IF($S$8="D",13,IF($S$8="E",14,IF($S$8="F",15,$S$8)))))))/POWER(2,2))</f>
         <v>1</v>
       </c>
-      <c r="U10" s="133">
+      <c r="U10" s="37">
         <f>INT((IF($S$8="A",10,IF($S$8="B",11,IF($S$8="C",12,IF($S$8="D",13,IF($S$8="E",14,IF($S$8="F",15,$S$8)))))))/POWER(2,1))</f>
         <v>2</v>
       </c>
-      <c r="V10" s="133">
+      <c r="V10" s="37">
         <f>INT((IF($S$8="A",10,IF($S$8="B",11,IF($S$8="C",12,IF($S$8="D",13,IF($S$8="E",14,IF($S$8="F",15,$S$8)))))))/POWER(2,0))</f>
         <v>5</v>
       </c>
-      <c r="W10" s="133">
+      <c r="W10" s="37">
         <f>INT((IF($W$8="A",10,IF($W$8="B",11,IF($W$8="C",12,IF($W$8="D",13,IF($W$8="E",14,IF($W$8="F",15,$W$8)))))))/POWER(2,3))</f>
         <v>0</v>
       </c>
-      <c r="X10" s="133">
+      <c r="X10" s="37">
         <f>INT((IF($W$8="A",10,IF($W$8="B",11,IF($W$8="C",12,IF($W$8="D",13,IF($W$8="E",14,IF($W$8="F",15,$W$8)))))))/POWER(2,2))</f>
         <v>1</v>
       </c>
-      <c r="Y10" s="133">
+      <c r="Y10" s="37">
         <f>INT((IF($W$8="A",10,IF($W$8="B",11,IF($W$8="C",12,IF($W$8="D",13,IF($W$8="E",14,IF($W$8="F",15,$W$8)))))))/POWER(2,1))</f>
         <v>2</v>
       </c>
-      <c r="Z10" s="133">
+      <c r="Z10" s="37">
         <f>INT((IF($W$8="A",10,IF($W$8="B",11,IF($W$8="C",12,IF($W$8="D",13,IF($W$8="E",14,IF($W$8="F",15,$W$8)))))))/POWER(2,0))</f>
         <v>5</v>
       </c>
-      <c r="AA10" s="133"/>
-      <c r="AB10" s="133"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
     </row>
-    <row r="11" spans="1:31" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="144" t="s">
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="136"/>
+      <c r="B11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="140">
-        <f t="shared" ref="C11:F11" si="17">MOD(C10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="133">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="133">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="133">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="133">
+      <c r="C11" s="39">
+        <f t="shared" ref="C11:F11" si="18">MOD(C10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="37">
         <f>MOD(G10,2)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="133">
-        <f t="shared" ref="H11:J11" si="18">MOD(H10,2)</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="133">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="133">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="133">
-        <f t="shared" ref="K11" si="19">MOD(K10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="133">
-        <f t="shared" ref="L11" si="20">MOD(L10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="133">
-        <f t="shared" ref="M11" si="21">MOD(M10,2)</f>
+      <c r="H11" s="37">
+        <f t="shared" ref="H11:J11" si="19">MOD(H10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="37">
+        <f t="shared" ref="K11" si="20">MOD(K10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="37">
+        <f t="shared" ref="L11" si="21">MOD(L10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="37">
+        <f t="shared" ref="M11" si="22">MOD(M10,2)</f>
         <v>0</v>
       </c>
       <c r="N11" s="26">
-        <f t="shared" ref="N11" si="22">MOD(N10,2)</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="139">
-        <f t="shared" ref="O11" si="23">MOD(O10,2)</f>
-        <v>1</v>
-      </c>
-      <c r="P11" s="133">
-        <f t="shared" ref="P11" si="24">MOD(P10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="133">
-        <f t="shared" ref="Q11" si="25">MOD(Q10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="133">
-        <f t="shared" ref="R11" si="26">MOD(R10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="133">
-        <f t="shared" ref="S11" si="27">MOD(S10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="133">
-        <f t="shared" ref="T11" si="28">MOD(T10,2)</f>
-        <v>1</v>
-      </c>
-      <c r="U11" s="133">
-        <f t="shared" ref="U11" si="29">MOD(U10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="133">
-        <f t="shared" ref="V11" si="30">MOD(V10,2)</f>
-        <v>1</v>
-      </c>
-      <c r="W11" s="133">
-        <f t="shared" ref="W11" si="31">MOD(W10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="133">
-        <f t="shared" ref="X11" si="32">MOD(X10,2)</f>
-        <v>1</v>
-      </c>
-      <c r="Y11" s="133">
-        <f t="shared" ref="Y11" si="33">MOD(Y10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="133">
-        <f t="shared" ref="Z11" si="34">MOD(Z10,2)</f>
-        <v>1</v>
-      </c>
-      <c r="AA11" s="133"/>
-      <c r="AB11" s="133"/>
+        <f t="shared" ref="N11" si="23">MOD(N10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="40">
+        <f t="shared" ref="O11" si="24">MOD(O10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="37">
+        <f t="shared" ref="P11" si="25">MOD(P10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="37">
+        <f t="shared" ref="Q11" si="26">MOD(Q10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="37">
+        <f t="shared" ref="R11" si="27">MOD(R10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="37">
+        <f t="shared" ref="S11" si="28">MOD(S10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="37">
+        <f t="shared" ref="T11" si="29">MOD(T10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="37">
+        <f t="shared" ref="U11" si="30">MOD(U10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="37">
+        <f t="shared" ref="V11" si="31">MOD(V10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="37">
+        <f t="shared" ref="W11" si="32">MOD(W10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="37">
+        <f t="shared" ref="X11" si="33">MOD(X10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="37">
+        <f t="shared" ref="Y11" si="34">MOD(Y10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="37">
+        <f t="shared" ref="Z11" si="35">MOD(Z10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
       <c r="AC11" s="15" t="str">
         <f>_xlfn.CONCAT(C11:N11)</f>
         <v>000111000001</v>
@@ -6576,60 +6851,60 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="B12" s="142" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="105">
+      <c r="C12" s="114">
         <f>C11*POWER(2,2)+D11*POWER(2,1)+E11*POWER(2,0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="105">
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="114">
         <f>F11*POWER(2,2)+G11*POWER(2,1)+H11*POWER(2,0)</f>
         <v>7</v>
       </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="105">
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="114">
         <f>I11*POWER(2,2)+J11*POWER(2,1)+K11*POWER(2,0)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="106"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="105">
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="114">
         <f>L11*POWER(2,2)+M11*POWER(2,1)+N11*POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="106"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="105">
-        <f t="shared" ref="O12" si="35">O11*POWER(2,2)+P11*POWER(2,1)+Q11*POWER(2,0)</f>
+      <c r="M12" s="115"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="114">
+        <f t="shared" ref="O12" si="36">O11*POWER(2,2)+P11*POWER(2,1)+Q11*POWER(2,0)</f>
         <v>4</v>
       </c>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="105">
-        <f t="shared" ref="R12" si="36">R11*POWER(2,2)+S11*POWER(2,1)+T11*POWER(2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="106"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="105">
-        <f t="shared" ref="U12" si="37">U11*POWER(2,2)+V11*POWER(2,1)+W11*POWER(2,0)</f>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="114">
+        <f t="shared" ref="R12" si="37">R11*POWER(2,2)+S11*POWER(2,1)+T11*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="115"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="114">
+        <f t="shared" ref="U12" si="38">U11*POWER(2,2)+V11*POWER(2,1)+W11*POWER(2,0)</f>
         <v>2</v>
       </c>
-      <c r="V12" s="106"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="105">
-        <f t="shared" ref="X12" si="38">X11*POWER(2,2)+Y11*POWER(2,1)+Z11*POWER(2,0)</f>
+      <c r="V12" s="115"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="114">
+        <f t="shared" ref="X12" si="39">X11*POWER(2,2)+Y11*POWER(2,1)+Z11*POWER(2,0)</f>
         <v>5</v>
       </c>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="133"/>
-      <c r="AB12" s="133"/>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
       <c r="AC12" s="15" t="str">
         <f>_xlfn.CONCAT(C12:N12)</f>
         <v>0701</v>
@@ -6644,20 +6919,28 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
+  <mergeCells count="58">
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O1:AB1"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W4:Z4"/>
     <mergeCell ref="AC8:AC9"/>
     <mergeCell ref="AD8:AD9"/>
     <mergeCell ref="AE8:AE9"/>
@@ -6674,28 +6957,13 @@
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="O1:AB1"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="O4:R4"/>
@@ -6704,67 +6972,3379 @@
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE46C21-11AC-4F77-AFB1-139A5D6F2227}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1A4736-7BD6-45C9-8A40-66099FAA2BB7}">
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AB9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="158" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="167"/>
+      <c r="AB2" s="94"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="89">
+        <v>11</v>
+      </c>
+      <c r="E3" s="89">
+        <v>10</v>
+      </c>
+      <c r="F3" s="89">
+        <v>9</v>
+      </c>
+      <c r="G3" s="89">
+        <v>8</v>
+      </c>
+      <c r="H3" s="89">
+        <v>7</v>
+      </c>
+      <c r="I3" s="89">
+        <v>6</v>
+      </c>
+      <c r="J3" s="89">
+        <v>5</v>
+      </c>
+      <c r="K3" s="89">
+        <v>4</v>
+      </c>
+      <c r="L3" s="89">
+        <v>3</v>
+      </c>
+      <c r="M3" s="89">
+        <v>2</v>
+      </c>
+      <c r="N3" s="89">
+        <v>1</v>
+      </c>
+      <c r="O3" s="89">
+        <v>0</v>
+      </c>
+      <c r="P3" s="89">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="89">
+        <v>2</v>
+      </c>
+      <c r="R3" s="89">
+        <v>3</v>
+      </c>
+      <c r="S3" s="89">
+        <v>4</v>
+      </c>
+      <c r="T3" s="89">
+        <v>5</v>
+      </c>
+      <c r="U3" s="89">
+        <v>6</v>
+      </c>
+      <c r="V3" s="89">
+        <v>7</v>
+      </c>
+      <c r="W3" s="89">
+        <v>8</v>
+      </c>
+      <c r="X3" s="89">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="89">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="89">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="89">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="94"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="95"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="100">
+        <v>14</v>
+      </c>
+      <c r="C5" s="100">
+        <v>584</v>
+      </c>
+      <c r="D5" s="154">
+        <f t="shared" ref="D5:O5" si="0">INT($B$5/POWER(2,D3))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="154">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O5" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P5" s="17">
+        <f>(C5/POWER(10,LEN(C5)))*2</f>
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="Q5" s="17">
+        <f t="shared" ref="Q5:X5" si="1">MOD(P5,1)*2</f>
+        <v>0.33599999999999985</v>
+      </c>
+      <c r="R5" s="17">
+        <f t="shared" si="1"/>
+        <v>0.67199999999999971</v>
+      </c>
+      <c r="S5" s="17">
+        <f t="shared" si="1"/>
+        <v>1.3439999999999994</v>
+      </c>
+      <c r="T5" s="17">
+        <f t="shared" si="1"/>
+        <v>0.68799999999999883</v>
+      </c>
+      <c r="U5" s="17">
+        <f t="shared" si="1"/>
+        <v>1.3759999999999977</v>
+      </c>
+      <c r="V5" s="17">
+        <f t="shared" si="1"/>
+        <v>0.75199999999999534</v>
+      </c>
+      <c r="W5" s="17">
+        <f t="shared" si="1"/>
+        <v>1.5039999999999907</v>
+      </c>
+      <c r="X5" s="17">
+        <f t="shared" si="1"/>
+        <v>1.0079999999999814</v>
+      </c>
+      <c r="Y5" s="17">
+        <f>MOD(X5,1)*2</f>
+        <v>1.5999999999962711E-2</v>
+      </c>
+      <c r="Z5" s="17">
+        <f t="shared" ref="Z5:AA5" si="2">MOD(Y5,1)*2</f>
+        <v>3.1999999999925421E-2</v>
+      </c>
+      <c r="AA5" s="17">
+        <f t="shared" si="2"/>
+        <v>6.3999999999850843E-2</v>
+      </c>
+      <c r="AB5" s="100" t="str">
+        <f>_xlfn.CONCAT(E6:O6,",",P6:Y6)</f>
+        <v>00000001110,1001010110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="168"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="16">
+        <f t="shared" ref="D6:O6" si="3">MOD(D5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" ref="P6:AA6" si="4">TRUNC(P5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="101"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="168"/>
+      <c r="B7" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="114">
+        <f>D6*POWER(2,3)+E6*POWER(2,2)+F6*POWER(2,1)+G6*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="114">
+        <f>H6*POWER(2,3)+I6*POWER(2,2)+J6*POWER(2,1)+K6*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="114">
+        <f>L6*POWER(2,3)+M6*POWER(2,2)+N6*POWER(2,1)+O6*POWER(2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="114">
+        <f>P6*POWER(2,3)+Q6*POWER(2,2)+R6*POWER(2,1)+S6*POWER(2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="114">
+        <f>T6*POWER(2,3)+U6*POWER(2,2)+V6*POWER(2,1)+W6*POWER(2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="114">
+        <f>X6*POWER(2,3)+Y6*POWER(2,2)+Z6*POWER(2,1)+AA6*POWER(2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="150" t="str">
+        <f>_xlfn.CONCAT(D8:O8,",",P8:AA8)</f>
+        <v>00E,958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="168"/>
+      <c r="B8" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="152"/>
+      <c r="D8" s="114">
+        <f>IF($D$7=10,"A",IF($D$7=11,"B",IF($D$7=12,"C",IF($D$7=13,"D",IF($D$7=14,"E",IF($D$7=15,"F",$D$7))))))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="114">
+        <f>IF($H$7=10,"A",IF($H$7=11,"B",IF($H$7=12,"C",IF($H$7=13,"D",IF($H$7=14,"E",IF($H$7=15,"F",$H$7))))))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="114" t="str">
+        <f>IF($L$7=10,"A",IF($L$7=11,"B",IF($L$7=12,"C",IF($L$7=13,"D",IF($L$7=14,"E",IF($L$7=15,"F",$L$7))))))</f>
+        <v>E</v>
+      </c>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="114">
+        <f>IF($P$7=10,"A",IF($P$7=11,"B",IF($P$7=12,"C",IF($P$7=13,"D",IF($P$7=14,"E",IF($P$7=15,"F",$P$7))))))</f>
+        <v>9</v>
+      </c>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="114">
+        <f>IF($T$7=10,"A",IF($T$7=11,"B",IF($T$7=12,"C",IF($T$7=13,"D",IF($T$7=14,"E",IF($T$7=15,"F",$T$7))))))</f>
+        <v>5</v>
+      </c>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="114">
+        <f>IF($X$7=10,"A",IF($X$7=11,"B",IF($X$7=12,"C",IF($X$7=13,"D",IF($X$7=14,"E",IF($X$7=15,"F",$X$7))))))</f>
+        <v>8</v>
+      </c>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="150"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="101"/>
+      <c r="B9" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="152"/>
+      <c r="D9" s="169">
+        <f>D6*POWER(2,2)+E6*POWER(2,1)+F6*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="170"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="169">
+        <f>G6*POWER(2,2)+H6*POWER(2,1)+I6*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="170"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="169">
+        <f>J6*POWER(2,2)+K6*POWER(2,1)+L6*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="170"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="169">
+        <f t="shared" ref="M9" si="5">M6*POWER(2,2)+N6*POWER(2,1)+O6*POWER(2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="N9" s="170"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="169">
+        <f t="shared" ref="P9" si="6">P6*POWER(2,2)+Q6*POWER(2,1)+R6*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="169">
+        <f t="shared" ref="S9" si="7">S6*POWER(2,2)+T6*POWER(2,1)+U6*POWER(2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="T9" s="170"/>
+      <c r="U9" s="171"/>
+      <c r="V9" s="169">
+        <f t="shared" ref="V9" si="8">V6*POWER(2,2)+W6*POWER(2,1)+X6*POWER(2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="W9" s="170"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="169">
+        <f t="shared" ref="Y9" si="9">Y6*POWER(2,2)+Z6*POWER(2,1)+AA6*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="149" t="str">
+        <f>_xlfn.CONCAT(D9:O9,",",P9:AA9)</f>
+        <v>0016,4530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="102">
+        <v>79</v>
+      </c>
+      <c r="C10" s="102">
+        <v>762</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" ref="D10:O10" si="10">INT($B$10/POWER(2,D3))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="M10" s="17">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="N10" s="17">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="O10" s="17">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="P10" s="17">
+        <f>(C10/POWER(10,LEN(C10)))*2</f>
+        <v>1.524</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" ref="Q10:X10" si="11">MOD(P10,1)*2</f>
+        <v>1.048</v>
+      </c>
+      <c r="R10" s="17">
+        <f t="shared" si="11"/>
+        <v>9.6000000000000085E-2</v>
+      </c>
+      <c r="S10" s="17">
+        <f t="shared" si="11"/>
+        <v>0.19200000000000017</v>
+      </c>
+      <c r="T10" s="17">
+        <f t="shared" si="11"/>
+        <v>0.38400000000000034</v>
+      </c>
+      <c r="U10" s="17">
+        <f t="shared" si="11"/>
+        <v>0.76800000000000068</v>
+      </c>
+      <c r="V10" s="17">
+        <f t="shared" si="11"/>
+        <v>1.5360000000000014</v>
+      </c>
+      <c r="W10" s="17">
+        <f t="shared" si="11"/>
+        <v>1.0720000000000027</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" si="11"/>
+        <v>0.14400000000000546</v>
+      </c>
+      <c r="Y10" s="17">
+        <f>MOD(X10,1)*2</f>
+        <v>0.28800000000001091</v>
+      </c>
+      <c r="Z10" s="17">
+        <f t="shared" ref="Z10:AA10" si="12">MOD(Y10,1)*2</f>
+        <v>0.57600000000002183</v>
+      </c>
+      <c r="AA10" s="17">
+        <f t="shared" si="12"/>
+        <v>1.1520000000000437</v>
+      </c>
+      <c r="AB10" s="102" t="str">
+        <f>_xlfn.CONCAT(E11:O11,",",P11:Y11)</f>
+        <v>00001001111,1100001100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="148"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="16">
+        <f t="shared" ref="D11:O11" si="13">MOD(D10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" ref="P11:AA11" si="14">TRUNC(P10,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="103"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="148"/>
+      <c r="B12" s="175" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="176"/>
+      <c r="D12" s="169">
+        <f>D11*POWER(2,3)+E11*POWER(2,2)+F11*POWER(2,1)+G11*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="169">
+        <f t="shared" ref="E12:Y12" si="15">H11*POWER(2,3)+I11*POWER(2,2)+J11*POWER(2,1)+K11*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="169">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="169">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="171"/>
+      <c r="T12" s="169">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="U12" s="170"/>
+      <c r="V12" s="170"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="169">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="170"/>
+      <c r="Z12" s="170"/>
+      <c r="AA12" s="171"/>
+      <c r="AB12" s="54" t="str">
+        <f>_xlfn.CONCAT(D13:O13,",",P13:AA13)</f>
+        <v>04F,C31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="148"/>
+      <c r="B13" s="175" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="176"/>
+      <c r="D13" s="172">
+        <f>IF($D$12=10,"A",IF($D$12=11,"B",IF($D$12=12,"C",IF($D$12=13,"D",IF($D$12=14,"E",IF($D$12=15,"F",$D$12))))))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="172">
+        <f>IF($H$12=10,"A",IF($H$12=11,"B",IF($H$12=12,"C",IF($H$12=13,"D",IF($H$12=14,"E",IF($H$12=15,"F",$H$12))))))</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="172" t="str">
+        <f>IF($L$12=10,"A",IF($L$12=11,"B",IF($L$12=12,"C",IF($L$12=13,"D",IF($L$12=14,"E",IF($L$12=15,"F",$L$12))))))</f>
+        <v>F</v>
+      </c>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="172" t="str">
+        <f>IF($P$12=10,"A",IF($P$12=11,"B",IF($P$12=12,"C",IF($P$12=13,"D",IF($P$12=14,"E",IF($P$12=15,"F",$P$12))))))</f>
+        <v>C</v>
+      </c>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="173"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="172">
+        <f>IF($T$12=10,"A",IF($T$12=11,"B",IF($T$12=12,"C",IF($T$12=13,"D",IF($T$12=14,"E",IF($T$12=15,"F",$T$12))))))</f>
+        <v>3</v>
+      </c>
+      <c r="U13" s="173"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="172">
+        <f>IF($X$12=10,"A",IF($X$12=11,"B",IF($X$12=12,"C",IF($X$12=13,"D",IF($X$12=14,"E",IF($X$12=15,"F",$X$12))))))</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="173"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="174"/>
+      <c r="AB13" s="54"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="103"/>
+      <c r="B14" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="176"/>
+      <c r="D14" s="172">
+        <f t="shared" ref="D14" si="16">D11*POWER(2,2)+E11*POWER(2,1)+F11*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="172">
+        <f t="shared" ref="G14" si="17">G11*POWER(2,2)+H11*POWER(2,1)+I11*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="173"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="172">
+        <f t="shared" ref="J14" si="18">J11*POWER(2,2)+K11*POWER(2,1)+L11*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="173"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="172">
+        <f>M11*POWER(2,2)+N11*POWER(2,1)+O11*POWER(2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="N14" s="173"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="172">
+        <f t="shared" ref="P14" si="19">P11*POWER(2,2)+Q11*POWER(2,1)+R11*POWER(2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="174"/>
+      <c r="S14" s="172">
+        <f t="shared" ref="S14" si="20">S11*POWER(2,2)+T11*POWER(2,1)+U11*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="173"/>
+      <c r="U14" s="174"/>
+      <c r="V14" s="172">
+        <f t="shared" ref="V14" si="21">V11*POWER(2,2)+W11*POWER(2,1)+X11*POWER(2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="W14" s="173"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="172">
+        <f t="shared" ref="Y14" si="22">Y11*POWER(2,2)+Z11*POWER(2,1)+AA11*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="173"/>
+      <c r="AA14" s="174"/>
+      <c r="AB14" s="35" t="str">
+        <f>_xlfn.CONCAT(D14:O14,",",P14:AA14)</f>
+        <v>0117,6061</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="89">
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="P2:AA2"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="AB1:AB4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1A4736-7BD6-45C9-8A40-66099FAA2BB7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C47ECF-7836-4EB7-9017-B632F5DF5DEE}">
+  <dimension ref="A1:AO5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3:AO3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="38.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="142"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="121">
+        <v>2</v>
+      </c>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="121">
+        <v>5</v>
+      </c>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="121">
+        <v>4</v>
+      </c>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="121">
+        <v>7</v>
+      </c>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="121">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="121">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="33" t="str">
+        <f>_xlfn.CONCAT(C2:Z2)</f>
+        <v>254A7C</v>
+      </c>
+      <c r="AN2" s="15" t="str">
+        <f>_xlfn.CONCAT(AA2:AL2)</f>
+        <v>2A3</v>
+      </c>
+      <c r="AO2" s="32" t="str">
+        <f>_xlfn.CONCAT(AM2,",",AN2)</f>
+        <v>254A7C,2A3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="127"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="177">
+        <f>INT((IF($C$2="A",10,IF($C$2="B",11,IF($C$2="C",12,IF($C$2="D",13,IF($C$2="E",14,IF($C$2="F",15,$C$2)))))))/POWER(2,3))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="177">
+        <f>INT((IF($C$2="A",10,IF($C$2="B",11,IF($C$2="C",12,IF($C$2="D",13,IF($C$2="E",14,IF($C$2="F",15,$C$2)))))))/POWER(2,2))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="177">
+        <f>INT((IF($C$2="A",10,IF($C$2="B",11,IF($C$2="C",12,IF($C$2="D",13,IF($C$2="E",14,IF($C$2="F",15,$C$2)))))))/POWER(2,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="177">
+        <f>INT((IF($C$2="A",10,IF($C$2="B",11,IF($C$2="C",12,IF($C$2="D",13,IF($C$2="E",14,IF($C$2="F",15,$C$2)))))))/POWER(2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="177">
+        <f>INT((IF($G$2="A",10,IF($G$2="B",11,IF($G$2="C",12,IF($G$2="D",13,IF($G$2="E",14,IF($G$2="F",15,$G$2)))))))/POWER(2,3))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="177">
+        <f>INT((IF($G$2="A",10,IF($G$2="B",11,IF($G$2="C",12,IF($G$2="D",13,IF($G$2="E",14,IF($G$2="F",15,$G$2)))))))/POWER(2,2))</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="177">
+        <f>INT((IF($G$2="A",10,IF($G$2="B",11,IF($G$2="C",12,IF($G$2="D",13,IF($G$2="E",14,IF($G$2="F",15,$G$2)))))))/POWER(2,1))</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="177">
+        <f>INT((IF($G$2="A",10,IF($G$2="B",11,IF($G$2="C",12,IF($G$2="D",13,IF($G$2="E",14,IF($G$2="F",15,$G$2)))))))/POWER(2,0))</f>
+        <v>5</v>
+      </c>
+      <c r="K3" s="177">
+        <f>INT((IF($K$2="A",10,IF($K$2="B",11,IF($K$2="C",12,IF($K$2="D",13,IF($K$2="E",14,IF($K$2="F",15,$K$2)))))))/POWER(2,3))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="177">
+        <f>INT((IF($K$2="A",10,IF($K$2="B",11,IF($K$2="C",12,IF($K$2="D",13,IF($K$2="E",14,IF($K$2="F",15,$K$2)))))))/POWER(2,2))</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="177">
+        <f>INT((IF($K$2="A",10,IF($K$2="B",11,IF($K$2="C",12,IF($K$2="D",13,IF($K$2="E",14,IF($K$2="F",15,$K$2)))))))/POWER(2,1))</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="184">
+        <f>INT((IF($K$2="A",10,IF($K$2="B",11,IF($K$2="C",12,IF($K$2="D",13,IF($K$2="E",14,IF($K$2="F",15,$K$2)))))))/POWER(2,0))</f>
+        <v>4</v>
+      </c>
+      <c r="O3" s="181">
+        <f>INT((IF($O$2="A",10,IF($O$2="B",11,IF($O$2="C",12,IF($O$2="D",13,IF($O$2="E",14,IF($O$2="F",15,$O$2)))))))/POWER(2,3))</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="182">
+        <f>INT((IF($O$2="A",10,IF($O$2="B",11,IF($O$2="C",12,IF($O$2="D",13,IF($O$2="E",14,IF($O$2="F",15,$O$2)))))))/POWER(2,2))</f>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="182">
+        <f>INT((IF($O$2="A",10,IF($O$2="B",11,IF($O$2="C",12,IF($O$2="D",13,IF($O$2="E",14,IF($O$2="F",15,$O$2)))))))/POWER(2,1))</f>
+        <v>5</v>
+      </c>
+      <c r="R3" s="183">
+        <f>INT((IF($O$2="A",10,IF($O$2="B",11,IF($O$2="C",12,IF($O$2="D",13,IF($O$2="E",14,IF($O$2="F",15,$O$2)))))))/POWER(2,0))</f>
+        <v>10</v>
+      </c>
+      <c r="S3" s="19">
+        <f>INT((IF($S$2="A",10,IF($S$2="B",11,IF($S$2="C",12,IF($S$2="D",13,IF($S$2="E",14,IF($S$2="F",15,$S$2)))))))/POWER(2,3))</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="19">
+        <f>INT((IF($S$2="A",10,IF($S$2="B",11,IF($S$2="C",12,IF($S$2="D",13,IF($S$2="E",14,IF($S$2="F",15,$S$2)))))))/POWER(2,2))</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="19">
+        <f>INT((IF($S$2="A",10,IF($S$2="B",11,IF($S$2="C",12,IF($S$2="D",13,IF($S$2="E",14,IF($S$2="F",15,$S$2)))))))/POWER(2,1))</f>
+        <v>3</v>
+      </c>
+      <c r="V3" s="27">
+        <f>INT((IF($S$2="A",10,IF($S$2="B",11,IF($S$2="C",12,IF($S$2="D",13,IF($S$2="E",14,IF($S$2="F",15,$S$2)))))))/POWER(2,0))</f>
+        <v>7</v>
+      </c>
+      <c r="W3" s="19">
+        <f>INT((IF($W$2="A",10,IF($W$2="B",11,IF($W$2="C",12,IF($W$2="D",13,IF($W$2="E",14,IF($W$2="F",15,$W$2)))))))/POWER(2,3))</f>
+        <v>1</v>
+      </c>
+      <c r="X3" s="19">
+        <f>INT((IF($W$2="A",10,IF($W$2="B",11,IF($W$2="C",12,IF($W$2="D",13,IF($W$2="E",14,IF($W$2="F",15,$W$2)))))))/POWER(2,2))</f>
+        <v>3</v>
+      </c>
+      <c r="Y3" s="19">
+        <f>INT((IF($W$2="A",10,IF($W$2="B",11,IF($W$2="C",12,IF($W$2="D",13,IF($W$2="E",14,IF($W$2="F",15,$W$2)))))))/POWER(2,1))</f>
+        <v>6</v>
+      </c>
+      <c r="Z3" s="19">
+        <f>INT((IF($W$2="A",10,IF($W$2="B",11,IF($W$2="C",12,IF($W$2="D",13,IF($W$2="E",14,IF($W$2="F",15,$W$2)))))))/POWER(2,0))</f>
+        <v>12</v>
+      </c>
+      <c r="AA3" s="38">
+        <f>INT((IF($AA$2="A",10,IF($AA$2="B",11,IF($AA$2="C",12,IF($AA$2="D",13,IF($AA$2="E",14,IF($AA$2="F",15,$AA$2)))))))/POWER(2,3))</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="19">
+        <f>INT((IF($AA$2="A",10,IF($AA$2="B",11,IF($AA$2="C",12,IF($AA$2="D",13,IF($AA$2="E",14,IF($AA$2="F",15,$AA$2)))))))/POWER(2,2))</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="19">
+        <f>INT((IF($AA$2="A",10,IF($AA$2="B",11,IF($AA$2="C",12,IF($AA$2="D",13,IF($AA$2="E",14,IF($AA$2="F",15,$AA$2)))))))/POWER(2,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AD3" s="19">
+        <f>INT((IF($AA$2="A",10,IF($AA$2="B",11,IF($AA$2="C",12,IF($AA$2="D",13,IF($AA$2="E",14,IF($AA$2="F",15,$AA$2)))))))/POWER(2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AE3" s="19">
+        <f>INT((IF($AE$2="A",10,IF($AE$2="B",11,IF($AE$2="C",12,IF($AE$2="D",13,IF($AE$2="E",14,IF($AE$2="F",15,0)))))))/POWER(2,3))</f>
+        <v>1</v>
+      </c>
+      <c r="AF3" s="19">
+        <f>INT((IF($AE$2="A",10,IF($AE$2="B",11,IF($AE$2="C",12,IF($AE$2="D",13,IF($AE$2="E",14,IF($AE$2="F",15,0)))))))/POWER(2,2))</f>
+        <v>2</v>
+      </c>
+      <c r="AG3" s="19">
+        <f>INT((IF($AE$2="A",10,IF($AE$2="B",11,IF($AE$2="C",12,IF($AE$2="D",13,IF($AE$2="E",14,IF($AE$2="F",15,0)))))))/POWER(2,1))</f>
+        <v>5</v>
+      </c>
+      <c r="AH3" s="19">
+        <f>INT((IF($AE$2="A",10,IF($AE$2="B",11,IF($AE$2="C",12,IF($AE$2="D",13,IF($AE$2="E",14,IF($AE$2="F",15,0)))))))/POWER(2,0))</f>
+        <v>10</v>
+      </c>
+      <c r="AI3" s="19">
+        <f>INT((IF($AI$2="A",10,IF($AI$2="B",11,IF($AI$2="C",12,IF($AI$2="D",13,IF($AI$2="E",14,IF($AI$2="F",15,$AI$2)))))))/POWER(2,3))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="19">
+        <f>INT((IF($AI$2="A",10,IF($AI$2="B",11,IF($AI$2="C",12,IF($AI$2="D",13,IF($AI$2="E",14,IF($AI$2="F",15,$AI$2)))))))/POWER(2,2))</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="19">
+        <f>INT((IF($AI$2="A",10,IF($AI$2="B",11,IF($AI$2="C",12,IF($AI$2="D",13,IF($AI$2="E",14,IF($AI$2="F",15,$AI$2)))))))/POWER(2,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL3" s="19">
+        <f>INT((IF($AI$2="A",10,IF($AI$2="B",11,IF($AI$2="C",12,IF($AI$2="D",13,IF($AI$2="E",14,IF($AI$2="F",15,$AI$2)))))))/POWER(2,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AM3" s="185"/>
+      <c r="AN3" s="186"/>
+      <c r="AO3" s="187"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="127"/>
+      <c r="B4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="28">
+        <f t="shared" ref="C4:R4" si="0">MOD(C3,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="28">
+        <f>MOD(S3,2)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="179">
+        <f t="shared" ref="T4:AL4" si="1">MOD(T3,2)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="179">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="180">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W4" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X4" s="179">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="179">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="180">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="179">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="179">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="179">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD4" s="179">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF4" s="179">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="179">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH4" s="180">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="179">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="179">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="179">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AL4" s="180">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AM4" s="15" t="str">
+        <f>_xlfn.CONCAT(C4:Z4)</f>
+        <v>001001010100101001111100</v>
+      </c>
+      <c r="AN4" s="15" t="str">
+        <f>_xlfn.CONCAT(AA4:AL4)</f>
+        <v>001010100011</v>
+      </c>
+      <c r="AO4" s="15" t="str">
+        <f>_xlfn.CONCAT(AM4,",",AN4)</f>
+        <v>001001010100101001111100,001010100011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="153">
+        <f t="shared" ref="C5" si="2">C4*POWER(2,2)+D4*POWER(2,1)+E4*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153">
+        <f t="shared" ref="F5" si="3">F4*POWER(2,2)+G4*POWER(2,1)+H4*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153">
+        <f t="shared" ref="I5" si="4">I4*POWER(2,2)+J4*POWER(2,1)+K4*POWER(2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153">
+        <f t="shared" ref="L5" si="5">L4*POWER(2,2)+M4*POWER(2,1)+N4*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="153">
+        <f t="shared" ref="O5" si="6">O4*POWER(2,2)+P4*POWER(2,1)+Q4*POWER(2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153">
+        <f>R4*POWER(2,2)+S4*POWER(2,1)+T4*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153">
+        <f>U4*POWER(2,2)+V4*POWER(2,1)+W4*POWER(2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153">
+        <f>X4*POWER(2,2)+Y4*POWER(2,1)+Z4*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153">
+        <f>AA4*POWER(2,2)+AB4*POWER(2,1)+AC4*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153">
+        <f>AD4*POWER(2,2)+AE4*POWER(2,1)+AF4*POWER(2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="153"/>
+      <c r="AG5" s="153">
+        <f>AG4*POWER(2,2)+AH4*POWER(2,1)+AI4*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AH5" s="153"/>
+      <c r="AI5" s="153"/>
+      <c r="AJ5" s="153">
+        <f>AJ4*POWER(2,2)+AK4*POWER(2,1)+AL4*POWER(2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AK5" s="153"/>
+      <c r="AL5" s="153"/>
+      <c r="AM5" s="15" t="str">
+        <f>_xlfn.CONCAT(C5:Z5)</f>
+        <v>11245174</v>
+      </c>
+      <c r="AN5" s="15" t="str">
+        <f>_xlfn.CONCAT(AA5:AL5)</f>
+        <v>1243</v>
+      </c>
+      <c r="AO5" s="15" t="str">
+        <f>_xlfn.CONCAT(AM5,",",AN5)</f>
+        <v>11245174,1243</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="AA1:AL1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C47ECF-7836-4EB7-9017-B632F5DF5DEE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74204A25-FB9C-42DD-AAE3-E1C21F2AD589}">
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="27" width="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2" customWidth="1"/>
+    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="195"/>
+      <c r="B1" s="207" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="204"/>
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="197" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="198" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" s="210" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="196" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="201">
+        <v>0</v>
+      </c>
+      <c r="C2" s="161">
+        <v>0</v>
+      </c>
+      <c r="D2" s="161">
+        <v>1</v>
+      </c>
+      <c r="E2" s="161">
+        <v>1</v>
+      </c>
+      <c r="F2" s="161">
+        <v>0</v>
+      </c>
+      <c r="G2" s="161">
+        <v>1</v>
+      </c>
+      <c r="H2" s="161">
+        <v>0</v>
+      </c>
+      <c r="I2" s="161">
+        <v>1</v>
+      </c>
+      <c r="J2" s="161">
+        <v>1</v>
+      </c>
+      <c r="K2" s="161">
+        <v>0</v>
+      </c>
+      <c r="L2" s="161">
+        <v>1</v>
+      </c>
+      <c r="M2" s="161">
+        <v>1</v>
+      </c>
+      <c r="N2" s="161">
+        <v>0</v>
+      </c>
+      <c r="O2" s="161">
+        <v>1</v>
+      </c>
+      <c r="P2" s="161">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="206">
+        <v>0</v>
+      </c>
+      <c r="R2" s="201">
+        <v>0</v>
+      </c>
+      <c r="S2" s="161">
+        <v>0</v>
+      </c>
+      <c r="T2" s="161">
+        <v>0</v>
+      </c>
+      <c r="U2" s="161">
+        <v>0</v>
+      </c>
+      <c r="V2" s="161">
+        <v>0</v>
+      </c>
+      <c r="W2" s="161">
+        <v>0</v>
+      </c>
+      <c r="X2" s="161">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="161">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="161">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="161">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="161">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="202">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="196" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="191">
+        <f>B2*POWER(2,3)+C2*POWER(2,2)+D2*POWER(2,1)+E2*POWER(2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153">
+        <f>F2*POWER(2,3)+G2*POWER(2,2)+H2*POWER(2,1)+I2*POWER(2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153">
+        <f>J2*POWER(2,3)+K2*POWER(2,2)+L2*POWER(2,1)+M2*POWER(2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153">
+        <f>N2*POWER(2,3)+O2*POWER(2,2)+P2*POWER(2,1)+Q2*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="191">
+        <f t="shared" ref="R3" si="0">R2*POWER(2,3)+S2*POWER(2,2)+T2*POWER(2,1)+U2*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="153"/>
+      <c r="T3" s="153"/>
+      <c r="U3" s="153"/>
+      <c r="V3" s="153">
+        <f t="shared" ref="V3" si="1">V2*POWER(2,3)+W2*POWER(2,2)+X2*POWER(2,1)+Y2*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="153"/>
+      <c r="X3" s="153"/>
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="153">
+        <f t="shared" ref="Z3" si="2">Z2*POWER(2,3)+AA2*POWER(2,2)+AB2*POWER(2,1)+AC2*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="189"/>
+      <c r="AF3" s="189"/>
+      <c r="AG3" s="211"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="196" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="140">
+        <f>IF(B3=10,"A",IF(B3=11,"B",IF(B3=12,"C",IF(B3=13,"D",IF(B3=14,"E",IF(B3=15,"F",B3))))))</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="114">
+        <f t="shared" ref="F4" si="3">IF(F3=10,"A",IF(F3=11,"B",IF(F3=12,"C",IF(F3=13,"D",IF(F3=14,"E",IF(F3=15,"F",F3))))))</f>
+        <v>5</v>
+      </c>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="114" t="str">
+        <f t="shared" ref="J4" si="4">IF(J3=10,"A",IF(J3=11,"B",IF(J3=12,"C",IF(J3=13,"D",IF(J3=14,"E",IF(J3=15,"F",J3))))))</f>
+        <v>B</v>
+      </c>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="114">
+        <f t="shared" ref="N4" si="5">IF(N3=10,"A",IF(N3=11,"B",IF(N3=12,"C",IF(N3=13,"D",IF(N3=14,"E",IF(N3=15,"F",N3))))))</f>
+        <v>4</v>
+      </c>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="140">
+        <f t="shared" ref="R4" si="6">IF(R3=10,"A",IF(R3=11,"B",IF(R3=12,"C",IF(R3=13,"D",IF(R3=14,"E",IF(R3=15,"F",R3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="114">
+        <f t="shared" ref="V4" si="7">IF(V3=10,"A",IF(V3=11,"B",IF(V3=12,"C",IF(V3=13,"D",IF(V3=14,"E",IF(V3=15,"F",V3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="114">
+        <f t="shared" ref="Z4" si="8">IF(Z3=10,"A",IF(Z3=11,"B",IF(Z3=12,"C",IF(Z3=13,"D",IF(Z3=14,"E",IF(Z3=15,"F",Z3))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="190" t="str">
+        <f t="shared" ref="AD4:AD13" si="9">_xlfn.CONCAT(B4:Q4)</f>
+        <v>35B4</v>
+      </c>
+      <c r="AE4" s="16" t="str">
+        <f t="shared" ref="AE4:AE13" si="10">_xlfn.CONCAT(R4:AC4)</f>
+        <v>000</v>
+      </c>
+      <c r="AF4" s="2" t="str">
+        <f t="shared" ref="AF4:AF13" si="11">_xlfn.CONCAT(AD4,",",AE4)</f>
+        <v>35B4,000</v>
+      </c>
+      <c r="AG4" s="211"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="196" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="190"/>
+      <c r="C5" s="153">
+        <f t="shared" ref="C5" si="12">C2*POWER(2,2)+D2*POWER(2,1)+E2*POWER(2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153">
+        <f t="shared" ref="F5" si="13">F2*POWER(2,2)+G2*POWER(2,1)+H2*POWER(2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153">
+        <f t="shared" ref="I5" si="14">I2*POWER(2,2)+J2*POWER(2,1)+K2*POWER(2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153">
+        <f t="shared" ref="L5" si="15">L2*POWER(2,2)+M2*POWER(2,1)+N2*POWER(2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="153">
+        <f>O2*POWER(2,2)+P2*POWER(2,1)+Q2*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="191">
+        <f t="shared" ref="R5" si="16">R2*POWER(2,2)+S2*POWER(2,1)+T2*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153">
+        <f t="shared" ref="U5" si="17">U2*POWER(2,2)+V2*POWER(2,1)+W2*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153">
+        <f t="shared" ref="X5" si="18">X2*POWER(2,2)+Y2*POWER(2,1)+Z2*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153">
+        <f t="shared" ref="AA5" si="19">AA2*POWER(2,2)+AB2*POWER(2,1)+AC2*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="114"/>
+      <c r="AD5" s="190" t="str">
+        <f t="shared" si="9"/>
+        <v>32664</v>
+      </c>
+      <c r="AE5" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>0000</v>
+      </c>
+      <c r="AF5" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>32664,0000</v>
+      </c>
+      <c r="AG5" s="211"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="196" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="190">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>1</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>1</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="190">
+        <v>0</v>
+      </c>
+      <c r="S6" s="16">
+        <v>0</v>
+      </c>
+      <c r="T6" s="16">
+        <v>1</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <v>1</v>
+      </c>
+      <c r="W6" s="16">
+        <v>0</v>
+      </c>
+      <c r="X6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="133"/>
+      <c r="AF6" s="178"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="196" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="191">
+        <f>B6*POWER(2,3)+C6*POWER(2,2)+D6*POWER(2,1)+E6*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153">
+        <f>F6*POWER(2,3)+G6*POWER(2,2)+H6*POWER(2,1)+I6*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153">
+        <f>J6*POWER(2,3)+K6*POWER(2,2)+L6*POWER(2,1)+M6*POWER(2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153">
+        <f>N6*POWER(2,3)+O6*POWER(2,2)+P6*POWER(2,1)+Q6*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="191">
+        <f t="shared" ref="R7" si="20">R6*POWER(2,3)+S6*POWER(2,2)+T6*POWER(2,1)+U6*POWER(2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S7" s="153"/>
+      <c r="T7" s="153"/>
+      <c r="U7" s="153"/>
+      <c r="V7" s="153">
+        <f t="shared" ref="V7" si="21">V6*POWER(2,3)+W6*POWER(2,2)+X6*POWER(2,1)+Y6*POWER(2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="W7" s="153"/>
+      <c r="X7" s="153"/>
+      <c r="Y7" s="153"/>
+      <c r="Z7" s="153">
+        <f t="shared" ref="Z7" si="22">Z6*POWER(2,3)+AA6*POWER(2,2)+AB6*POWER(2,1)+AC6*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AA7" s="153"/>
+      <c r="AB7" s="153"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="194"/>
+      <c r="AE7" s="189"/>
+      <c r="AF7" s="212"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="196" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="191">
+        <f>IF(B7=10,"A",IF(B7=11,"B",IF(B7=12,"C",IF(B7=13,"D",IF(B7=14,"E",IF(B7=15,"F",B7))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153">
+        <f t="shared" ref="F8" si="23">IF(F7=10,"A",IF(F7=11,"B",IF(F7=12,"C",IF(F7=13,"D",IF(F7=14,"E",IF(F7=15,"F",F7))))))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153">
+        <f t="shared" ref="J8" si="24">IF(J7=10,"A",IF(J7=11,"B",IF(J7=12,"C",IF(J7=13,"D",IF(J7=14,"E",IF(J7=15,"F",J7))))))</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153">
+        <f t="shared" ref="N8" si="25">IF(N7=10,"A",IF(N7=11,"B",IF(N7=12,"C",IF(N7=13,"D",IF(N7=14,"E",IF(N7=15,"F",N7))))))</f>
+        <v>4</v>
+      </c>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="191">
+        <f t="shared" ref="R8" si="26">IF(R7=10,"A",IF(R7=11,"B",IF(R7=12,"C",IF(R7=13,"D",IF(R7=14,"E",IF(R7=15,"F",R7))))))</f>
+        <v>2</v>
+      </c>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153" t="str">
+        <f t="shared" ref="V8" si="27">IF(V7=10,"A",IF(V7=11,"B",IF(V7=12,"C",IF(V7=13,"D",IF(V7=14,"E",IF(V7=15,"F",V7))))))</f>
+        <v>B</v>
+      </c>
+      <c r="W8" s="153"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="153">
+        <f t="shared" ref="Z8" si="28">IF(Z7=10,"A",IF(Z7=11,"B",IF(Z7=12,"C",IF(Z7=13,"D",IF(Z7=14,"E",IF(Z7=15,"F",Z7))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AA8" s="153"/>
+      <c r="AB8" s="153"/>
+      <c r="AC8" s="192"/>
+      <c r="AD8" s="188" t="str">
+        <f t="shared" si="9"/>
+        <v>0054</v>
+      </c>
+      <c r="AE8" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>2B4</v>
+      </c>
+      <c r="AF8" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>0054,2B4</v>
+      </c>
+      <c r="AG8" s="211"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="196" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="190">
+        <v>0</v>
+      </c>
+      <c r="C9" s="114">
+        <f>C6*POWER(2,2)+D6*POWER(2,1)+E6*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="114">
+        <f>F6*POWER(2,2)+G6*POWER(2,1)+H6*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="114">
+        <f>I6*POWER(2,2)+J6*POWER(2,1)+K6*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="115"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="114">
+        <f>L6*POWER(2,2)+M6*POWER(2,1)+N6*POWER(2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M9" s="115"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="114">
+        <f>O6*POWER(2,2)+P6*POWER(2,1)+Q6*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="140">
+        <f t="shared" ref="R9" si="29">R6*POWER(2,2)+S6*POWER(2,1)+T6*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="115"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="114">
+        <f t="shared" ref="U9" si="30">U6*POWER(2,2)+V6*POWER(2,1)+W6*POWER(2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V9" s="115"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="114">
+        <f t="shared" ref="X9" si="31">X6*POWER(2,2)+Y6*POWER(2,1)+Z6*POWER(2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="114">
+        <f t="shared" ref="AA9" si="32">AA6*POWER(2,2)+AB6*POWER(2,1)+AC6*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AB9" s="115"/>
+      <c r="AC9" s="115"/>
+      <c r="AD9" s="190" t="str">
+        <f t="shared" si="9"/>
+        <v>000124</v>
+      </c>
+      <c r="AE9" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>1264</v>
+      </c>
+      <c r="AF9" s="195" t="str">
+        <f t="shared" si="11"/>
+        <v>000124,1264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="196" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="190">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1</v>
+      </c>
+      <c r="N10" s="16">
+        <v>1</v>
+      </c>
+      <c r="O10" s="16">
+        <v>1</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="190">
+        <v>1</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0</v>
+      </c>
+      <c r="T10" s="16">
+        <v>0</v>
+      </c>
+      <c r="U10" s="16">
+        <v>1</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0</v>
+      </c>
+      <c r="W10" s="16">
+        <v>1</v>
+      </c>
+      <c r="X10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="193"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="178"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="196" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="140">
+        <f>B10*POWER(2,3)+C10*POWER(2,2)+D10*POWER(2,1)+E10*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="114">
+        <f>F10*POWER(2,3)+G10*POWER(2,2)+H10*POWER(2,1)+I10*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="114">
+        <f>J10*POWER(2,3)+K10*POWER(2,2)+L10*POWER(2,1)+M10*POWER(2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="114">
+        <f>N10*POWER(2,3)+O10*POWER(2,2)+P10*POWER(2,1)+Q10*POWER(2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="140">
+        <f t="shared" ref="R11" si="33">R10*POWER(2,3)+S10*POWER(2,2)+T10*POWER(2,1)+U10*POWER(2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="114">
+        <f t="shared" ref="V11" si="34">V10*POWER(2,3)+W10*POWER(2,2)+X10*POWER(2,1)+Y10*POWER(2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="W11" s="115"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="114">
+        <f t="shared" ref="Z11" si="35">Z10*POWER(2,3)+AA10*POWER(2,2)+AB10*POWER(2,1)+AC10*POWER(2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="115"/>
+      <c r="AC11" s="115"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="189"/>
+      <c r="AF11" s="212"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="196" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="191">
+        <f>IF(B11=10,"A",IF(B11=11,"B",IF(B11=12,"C",IF(B11=13,"D",IF(B11=14,"E",IF(B11=15,"F",B11))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153">
+        <f t="shared" ref="F12" si="36">IF(F11=10,"A",IF(F11=11,"B",IF(F11=12,"C",IF(F11=13,"D",IF(F11=14,"E",IF(F11=15,"F",F11))))))</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153">
+        <f t="shared" ref="J12" si="37">IF(J11=10,"A",IF(J11=11,"B",IF(J11=12,"C",IF(J11=13,"D",IF(J11=14,"E",IF(J11=15,"F",J11))))))</f>
+        <v>5</v>
+      </c>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153" t="str">
+        <f t="shared" ref="N12" si="38">IF(N11=10,"A",IF(N11=11,"B",IF(N11=12,"C",IF(N11=13,"D",IF(N11=14,"E",IF(N11=15,"F",N11))))))</f>
+        <v>D</v>
+      </c>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="192"/>
+      <c r="R12" s="116">
+        <f t="shared" ref="R12" si="39">IF(R11=10,"A",IF(R11=11,"B",IF(R11=12,"C",IF(R11=13,"D",IF(R11=14,"E",IF(R11=15,"F",R11))))))</f>
+        <v>9</v>
+      </c>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="153">
+        <f t="shared" ref="V12" si="40">IF(V11=10,"A",IF(V11=11,"B",IF(V11=12,"C",IF(V11=13,"D",IF(V11=14,"E",IF(V11=15,"F",V11))))))</f>
+        <v>5</v>
+      </c>
+      <c r="W12" s="153"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="153"/>
+      <c r="Z12" s="153" t="str">
+        <f t="shared" ref="Z12" si="41">IF(Z11=10,"A",IF(Z11=11,"B",IF(Z11=12,"C",IF(Z11=13,"D",IF(Z11=14,"E",IF(Z11=15,"F",Z11))))))</f>
+        <v>A</v>
+      </c>
+      <c r="AA12" s="153"/>
+      <c r="AB12" s="153"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="188" t="str">
+        <f t="shared" si="9"/>
+        <v>015D</v>
+      </c>
+      <c r="AE12" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>95A</v>
+      </c>
+      <c r="AF12" s="195" t="str">
+        <f t="shared" si="11"/>
+        <v>015D,95A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="196" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="190"/>
+      <c r="C13" s="114">
+        <f t="shared" ref="C13" si="42">C10*POWER(2,2)+D10*POWER(2,1)+E10*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="114">
+        <f t="shared" ref="F13" si="43">F10*POWER(2,2)+G10*POWER(2,1)+H10*POWER(2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="115"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="114">
+        <f t="shared" ref="I13" si="44">I10*POWER(2,2)+J10*POWER(2,1)+K10*POWER(2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="114">
+        <f t="shared" ref="L13" si="45">L10*POWER(2,2)+M10*POWER(2,1)+N10*POWER(2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M13" s="115"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="114">
+        <f>O10*POWER(2,2)+P10*POWER(2,1)+Q10*POWER(2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="115">
+        <f t="shared" ref="R13" si="46">R10*POWER(2,2)+S10*POWER(2,1)+T10*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="S13" s="115"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="114">
+        <f t="shared" ref="U13" si="47">U10*POWER(2,2)+V10*POWER(2,1)+W10*POWER(2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="V13" s="115"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="114">
+        <f t="shared" ref="X13" si="48">X10*POWER(2,2)+Y10*POWER(2,1)+Z10*POWER(2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="114">
+        <f t="shared" ref="AA13" si="49">AA10*POWER(2,2)+AB10*POWER(2,1)+AC10*POWER(2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="115"/>
+      <c r="AD13" s="190" t="str">
+        <f t="shared" si="9"/>
+        <v>00535</v>
+      </c>
+      <c r="AE13" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>4532</v>
+      </c>
+      <c r="AF13" s="195" t="str">
+        <f t="shared" si="11"/>
+        <v>00535,4532</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="AD2:AF3"/>
+    <mergeCell ref="AD6:AF7"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="R1:AC1"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74204A25-FB9C-42DD-AAE3-E1C21F2AD589}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6295A2-FCB6-47EF-97AA-1BA682030BEC}">
+  <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6295A2-FCB6-47EF-97AA-1BA682030BEC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="34" width="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="158" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="94"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="89">
+        <v>19</v>
+      </c>
+      <c r="D3" s="89">
+        <v>18</v>
+      </c>
+      <c r="E3" s="89">
+        <v>17</v>
+      </c>
+      <c r="F3" s="89">
+        <v>16</v>
+      </c>
+      <c r="G3" s="89">
+        <v>15</v>
+      </c>
+      <c r="H3" s="89">
+        <v>14</v>
+      </c>
+      <c r="I3" s="89">
+        <v>13</v>
+      </c>
+      <c r="J3" s="89">
+        <v>12</v>
+      </c>
+      <c r="K3" s="89">
+        <v>11</v>
+      </c>
+      <c r="L3" s="89">
+        <v>10</v>
+      </c>
+      <c r="M3" s="89">
+        <v>9</v>
+      </c>
+      <c r="N3" s="89">
+        <v>8</v>
+      </c>
+      <c r="O3" s="89">
+        <v>7</v>
+      </c>
+      <c r="P3" s="89">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="89">
+        <v>5</v>
+      </c>
+      <c r="R3" s="89">
+        <v>4</v>
+      </c>
+      <c r="S3" s="89">
+        <v>3</v>
+      </c>
+      <c r="T3" s="89">
+        <v>2</v>
+      </c>
+      <c r="U3" s="89">
+        <v>1</v>
+      </c>
+      <c r="V3" s="89">
+        <v>0</v>
+      </c>
+      <c r="W3" s="89">
+        <v>1</v>
+      </c>
+      <c r="X3" s="89">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="89">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="89">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="89">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="89">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="89">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="89">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="89">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="89">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="89">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="89">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="94"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="95"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="100">
+        <v>128225</v>
+      </c>
+      <c r="B5" s="100">
+        <v>1147</v>
+      </c>
+      <c r="C5" s="154">
+        <f>INT($A$5/POWER(2,C3))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="154">
+        <f>INT($A$5/POWER(2,D3))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="154">
+        <f>INT($A$5/POWER(2,E3))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="154">
+        <f>INT($A$5/POWER(2,F3))</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="154">
+        <f>INT($A$5/POWER(2,G3))</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="154">
+        <f>INT($A$5/POWER(2,H3))</f>
+        <v>7</v>
+      </c>
+      <c r="I5" s="154">
+        <f>INT($A$5/POWER(2,I3))</f>
+        <v>15</v>
+      </c>
+      <c r="J5" s="154">
+        <f>INT($A$5/POWER(2,J3))</f>
+        <v>31</v>
+      </c>
+      <c r="K5" s="154">
+        <f>INT($A$5/POWER(2,K3))</f>
+        <v>62</v>
+      </c>
+      <c r="L5" s="154">
+        <f>INT($A$5/POWER(2,L3))</f>
+        <v>125</v>
+      </c>
+      <c r="M5" s="17">
+        <f>INT($A$5/POWER(2,M3))</f>
+        <v>250</v>
+      </c>
+      <c r="N5" s="17">
+        <f>INT($A$5/POWER(2,N3))</f>
+        <v>500</v>
+      </c>
+      <c r="O5" s="17">
+        <f>INT($A$5/POWER(2,O3))</f>
+        <v>1001</v>
+      </c>
+      <c r="P5" s="17">
+        <f>INT($A$5/POWER(2,P3))</f>
+        <v>2003</v>
+      </c>
+      <c r="Q5" s="17">
+        <f>INT($A$5/POWER(2,Q3))</f>
+        <v>4007</v>
+      </c>
+      <c r="R5" s="17">
+        <f>INT($A$5/POWER(2,R3))</f>
+        <v>8014</v>
+      </c>
+      <c r="S5" s="17">
+        <f>INT($A$5/POWER(2,S3))</f>
+        <v>16028</v>
+      </c>
+      <c r="T5" s="17">
+        <f>INT($A$5/POWER(2,T3))</f>
+        <v>32056</v>
+      </c>
+      <c r="U5" s="17">
+        <f>INT($A$5/POWER(2,U3))</f>
+        <v>64112</v>
+      </c>
+      <c r="V5" s="17">
+        <f>INT($A$5/POWER(2,V3))</f>
+        <v>128225</v>
+      </c>
+      <c r="W5" s="17">
+        <f>(B5/POWER(10,LEN(B5)))*2</f>
+        <v>0.22939999999999999</v>
+      </c>
+      <c r="X5" s="17">
+        <f t="shared" ref="X5:AE5" si="0">MOD(W5,1)*2</f>
+        <v>0.45879999999999999</v>
+      </c>
+      <c r="Y5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="Z5" s="17">
+        <f t="shared" si="0"/>
+        <v>1.8351999999999999</v>
+      </c>
+      <c r="AA5" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6703999999999999</v>
+      </c>
+      <c r="AB5" s="17">
+        <f t="shared" si="0"/>
+        <v>1.3407999999999998</v>
+      </c>
+      <c r="AC5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.68159999999999954</v>
+      </c>
+      <c r="AD5" s="17">
+        <f t="shared" si="0"/>
+        <v>1.3631999999999991</v>
+      </c>
+      <c r="AE5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.72639999999999816</v>
+      </c>
+      <c r="AF5" s="17">
+        <f>MOD(AE5,1)*2</f>
+        <v>1.4527999999999963</v>
+      </c>
+      <c r="AG5" s="17">
+        <f t="shared" ref="AG5:AH5" si="1">MOD(AF5,1)*2</f>
+        <v>0.90559999999999263</v>
+      </c>
+      <c r="AH5" s="17">
+        <f t="shared" si="1"/>
+        <v>1.8111999999999853</v>
+      </c>
+      <c r="AI5" s="100" t="str">
+        <f>_xlfn.CONCAT(L6:V6,",",W6:AF6)</f>
+        <v>10011100001,0001110101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="16">
+        <f t="shared" ref="C6:V6" si="2">MOD(C5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="16">
+        <f t="shared" ref="W6:AH6" si="3">TRUNC(W5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI6" s="101"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="152"/>
+      <c r="C7" s="114">
+        <f>C6*POWER(2,3)+D6*POWER(2,2)+E6*POWER(2,1)+F6*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="114">
+        <f>G6*POWER(2,3)+H6*POWER(2,2)+I6*POWER(2,1)+J6*POWER(2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="114">
+        <f>K6*POWER(2,3)+L6*POWER(2,2)+M6*POWER(2,1)+N6*POWER(2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="114">
+        <f>O6*POWER(2,3)+P6*POWER(2,2)+Q6*POWER(2,1)+R6*POWER(2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="114">
+        <f>S6*POWER(2,3)+T6*POWER(2,2)+U6*POWER(2,1)+V6*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="114">
+        <f>W6*POWER(2,3)+X6*POWER(2,2)+Y6*POWER(2,1)+Z6*POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="114">
+        <f>AA6*POWER(2,3)+AB6*POWER(2,2)+AC6*POWER(2,1)+AD6*POWER(2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="114">
+        <f>AE6*POWER(2,3)+AF6*POWER(2,2)+AG6*POWER(2,1)+AH6*POWER(2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AF7" s="115"/>
+      <c r="AG7" s="115"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="150" t="str">
+        <f>_xlfn.CONCAT(C8:V8,",",W8:AH8)</f>
+        <v>1F4E1,1D5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="152"/>
+      <c r="C8" s="114">
+        <f>IF($C$7=10,"A",IF($C$7=11,"B",IF($C$7=12,"C",IF($C$7=13,"D",IF($C$7=14,"E",IF($C$7=15,"F",$C$7))))))</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="114" t="str">
+        <f>IF($G$7=10,"A",IF($G$7=11,"B",IF($G$7=12,"C",IF($G$7=13,"D",IF($G$7=14,"E",IF($G$7=15,"F",$G$7))))))</f>
+        <v>F</v>
+      </c>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="114">
+        <f>IF($K$7=10,"A",IF($K$7=11,"B",IF($K$7=12,"C",IF($K$7=13,"D",IF($K$7=14,"E",IF($K$7=15,"F",$K$7))))))</f>
+        <v>4</v>
+      </c>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="114" t="str">
+        <f>IF($O$7=10,"A",IF($O$7=11,"B",IF($O$7=12,"C",IF($O$7=13,"D",IF($O$7=14,"E",IF($O$7=15,"F",$O$7))))))</f>
+        <v>E</v>
+      </c>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="114">
+        <f>IF($S$7=10,"A",IF($S$7=11,"B",IF($S$7=12,"C",IF($S$7=13,"D",IF($S$7=14,"E",IF($S$7=15,"F",$S$7))))))</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="114">
+        <f>IF($W$7=10,"A",IF($W$7=11,"B",IF($W$7=12,"C",IF($W$7=13,"D",IF($W$7=14,"E",IF($W$7=15,"F",$W$7))))))</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="114" t="str">
+        <f>IF($AA$7=10,"A",IF($AA$7=11,"B",IF($AA$7=12,"C",IF($AA$7=13,"D",IF($AA$7=14,"E",IF($AA$7=15,"F",$AA$7))))))</f>
+        <v>D</v>
+      </c>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="114">
+        <f>IF($AE$7=10,"A",IF($AE$7=11,"B",IF($AE$7=12,"C",IF($AE$7=13,"D",IF($AE$7=14,"E",IF($AE$7=15,"F",$AE$7))))))</f>
+        <v>5</v>
+      </c>
+      <c r="AF8" s="115"/>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="150"/>
+    </row>
+  </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="AE7:AH7"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="AI1:AI4"/>
+    <mergeCell ref="W2:AH2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="K3:K4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>